--- a/data/cristageone.cur1.xlsx
+++ b/data/cristageone.cur1.xlsx
@@ -2230,10 +2230,10 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="EB59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="EA47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EQ69" sqref="EQ69"/>
+      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29867,333 +29867,432 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="3"/>
+      <c r="E69" s="3">
+        <v>-6.0999999999999943E-2</v>
+      </c>
       <c r="F69" s="3">
         <v>0.93899999999999995</v>
       </c>
       <c r="G69" s="2">
         <v>1</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3">
+        <v>-8.0000000000000071E-3</v>
+      </c>
       <c r="I69" s="3">
         <v>1.0109999999999999</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
+      <c r="K69" s="3">
+        <v>1.0000000000000009E-2</v>
+      </c>
       <c r="L69" s="3">
         <v>0.93100000000000005</v>
       </c>
       <c r="M69" s="2">
         <v>1</v>
       </c>
-      <c r="N69" s="3"/>
+      <c r="N69" s="3">
+        <v>-1.3999999999999901E-2</v>
+      </c>
       <c r="O69" s="3">
         <v>1.0229999999999999</v>
       </c>
       <c r="P69" s="2">
         <v>0</v>
       </c>
-      <c r="Q69" s="3"/>
+      <c r="Q69" s="3">
+        <v>-5.600000000000005E-2</v>
+      </c>
       <c r="R69" s="3">
         <v>0.97199999999999998</v>
       </c>
       <c r="S69" s="2">
         <v>0</v>
       </c>
-      <c r="T69" s="3"/>
+      <c r="T69" s="3">
+        <v>4.0000000000000036E-3</v>
+      </c>
       <c r="U69" s="3">
         <v>0.94</v>
       </c>
       <c r="V69" s="2">
         <v>1</v>
       </c>
-      <c r="W69" s="3"/>
+      <c r="W69" s="3">
+        <v>-4.0000000000000036E-3</v>
+      </c>
       <c r="X69" s="3">
         <v>1.006</v>
       </c>
       <c r="Y69" s="2">
         <v>0</v>
       </c>
-      <c r="Z69" s="3"/>
+      <c r="Z69" s="3">
+        <v>3.400000000000003E-2</v>
+      </c>
       <c r="AA69" s="3">
         <v>1.0109999999999999</v>
       </c>
       <c r="AB69" s="2">
         <v>0</v>
       </c>
-      <c r="AC69" s="3"/>
+      <c r="AC69" s="3">
+        <v>1.0999999999999899E-2</v>
+      </c>
       <c r="AD69" s="3">
         <v>1.0009999999999999</v>
       </c>
       <c r="AE69" s="2">
         <v>0</v>
       </c>
-      <c r="AF69" s="3"/>
+      <c r="AF69" s="3">
+        <v>8.999999999999897E-3</v>
+      </c>
       <c r="AG69" s="3">
         <v>0.92900000000000005</v>
       </c>
       <c r="AH69" s="2">
         <v>1</v>
       </c>
-      <c r="AI69" s="3"/>
+      <c r="AI69" s="3">
+        <v>-1.4999999999999902E-2</v>
+      </c>
       <c r="AJ69" s="3">
         <v>0.98599999999999999</v>
       </c>
       <c r="AK69" s="2">
         <v>0</v>
       </c>
-      <c r="AL69" s="3"/>
+      <c r="AL69" s="3">
+        <v>1.7000000000000015E-2</v>
+      </c>
       <c r="AM69" s="3">
         <v>1.03</v>
       </c>
       <c r="AN69" s="2">
         <v>0</v>
       </c>
-      <c r="AO69" s="3"/>
+      <c r="AO69" s="3">
+        <v>-3.6999999999999922E-2</v>
+      </c>
       <c r="AP69" s="3">
         <v>1.0009999999999999</v>
       </c>
       <c r="AQ69" s="2">
         <v>0</v>
       </c>
-      <c r="AR69" s="3"/>
+      <c r="AR69" s="3">
+        <v>-4.1000000000000147E-2</v>
+      </c>
       <c r="AS69" s="3">
         <v>0.95399999999999996</v>
       </c>
       <c r="AT69" s="2">
         <v>1</v>
       </c>
-      <c r="AU69" s="3"/>
+      <c r="AU69" s="3">
+        <v>3.2999999999999918E-2</v>
+      </c>
       <c r="AV69" s="3">
         <v>0.98599999999999999</v>
       </c>
       <c r="AW69" s="2">
         <v>0</v>
       </c>
-      <c r="AX69" s="3"/>
+      <c r="AX69" s="3">
+        <v>-3.400000000000003E-2</v>
+      </c>
       <c r="AY69" s="3">
         <v>1.0129999999999999</v>
       </c>
       <c r="AZ69" s="2">
         <v>0</v>
       </c>
-      <c r="BA69" s="3"/>
+      <c r="BA69" s="3">
+        <v>1.0999999999999899E-2</v>
+      </c>
       <c r="BB69" s="3">
         <v>0.998</v>
       </c>
       <c r="BC69" s="2">
         <v>0</v>
       </c>
-      <c r="BD69" s="3"/>
+      <c r="BD69" s="3">
+        <v>-1.0000000000000009E-3</v>
+      </c>
       <c r="BE69" s="3">
         <v>0.94299999999999995</v>
       </c>
       <c r="BF69" s="2">
         <v>1</v>
       </c>
-      <c r="BG69" s="3"/>
+      <c r="BG69" s="3">
+        <v>1.2999999999999901E-2</v>
+      </c>
       <c r="BH69" s="3">
         <v>0.98899999999999999</v>
       </c>
       <c r="BI69" s="2">
         <v>0</v>
       </c>
-      <c r="BJ69" s="3"/>
+      <c r="BJ69" s="3">
+        <v>-2.300000000000002E-2</v>
+      </c>
       <c r="BK69" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="BL69" s="2">
         <v>1</v>
       </c>
-      <c r="BM69" s="3"/>
+      <c r="BM69" s="3">
+        <v>-4.3999999999999817E-2</v>
+      </c>
       <c r="BN69" s="3">
         <v>0.95799999999999996</v>
       </c>
       <c r="BO69" s="2">
         <v>1</v>
       </c>
-      <c r="BP69" s="3"/>
+      <c r="BP69" s="3">
+        <v>-3.5000000000000031E-2</v>
+      </c>
       <c r="BQ69" s="3">
         <v>1.046</v>
       </c>
       <c r="BR69" s="2">
         <v>1</v>
       </c>
-      <c r="BS69" s="3"/>
+      <c r="BS69" s="3">
+        <v>2.8000000000000025E-2</v>
+      </c>
       <c r="BT69" s="3">
         <v>1.0009999999999999</v>
       </c>
       <c r="BU69" s="2">
         <v>0</v>
       </c>
-      <c r="BV69" s="3"/>
+      <c r="BV69" s="3">
+        <v>-2.7000000000000135E-2</v>
+      </c>
       <c r="BW69" s="3">
         <v>0.97699999999999998</v>
       </c>
       <c r="BX69" s="2">
         <v>0</v>
       </c>
-      <c r="BY69" s="3"/>
+      <c r="BY69" s="3">
+        <v>2.1000000000000019E-2</v>
+      </c>
       <c r="BZ69" s="3">
         <v>1.0960000000000001</v>
       </c>
       <c r="CA69" s="2">
         <v>1</v>
       </c>
-      <c r="CB69" s="3"/>
+      <c r="CB69" s="3">
+        <v>-4.1999999999999815E-2</v>
+      </c>
       <c r="CC69" s="3">
         <v>1.022</v>
       </c>
       <c r="CD69" s="2">
         <v>0</v>
       </c>
-      <c r="CE69" s="3"/>
+      <c r="CE69" s="3">
+        <v>3.9000000000000035E-2</v>
+      </c>
       <c r="CF69" s="3">
         <v>1.0960000000000001</v>
       </c>
       <c r="CG69" s="2">
         <v>1</v>
       </c>
-      <c r="CH69" s="3"/>
+      <c r="CH69" s="3">
+        <v>0.10200000000000009</v>
+      </c>
       <c r="CI69" s="3">
         <v>1.0009999999999999</v>
       </c>
       <c r="CJ69" s="2">
         <v>0</v>
       </c>
-      <c r="CK69" s="3"/>
+      <c r="CK69" s="3">
+        <v>9.9999999999998979E-3</v>
+      </c>
       <c r="CL69" s="3">
         <v>1.046</v>
       </c>
       <c r="CM69" s="2">
         <v>1</v>
       </c>
-      <c r="CN69" s="3"/>
+      <c r="CN69" s="3">
+        <v>2.7000000000000135E-2</v>
+      </c>
       <c r="CO69" s="3">
         <v>1.0089999999999999</v>
       </c>
       <c r="CP69" s="2">
         <v>0</v>
       </c>
-      <c r="CQ69" s="3"/>
+      <c r="CQ69" s="3">
+        <v>3.499999999999992E-2</v>
+      </c>
       <c r="CR69" s="3">
         <v>1.002</v>
       </c>
-      <c r="CT69" s="3"/>
+      <c r="CS69" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT69" s="3">
+        <v>-2.6999999999999913E-2</v>
+      </c>
       <c r="CU69" s="3">
         <v>0.96799999999999997</v>
       </c>
       <c r="CV69" s="2">
         <v>1</v>
       </c>
-      <c r="CW69" s="3"/>
+      <c r="CW69" s="3">
+        <v>-4.4999999999999929E-2</v>
+      </c>
       <c r="CX69" s="3">
         <v>1.1459999999999999</v>
       </c>
       <c r="CY69" s="2">
         <v>1</v>
       </c>
-      <c r="CZ69" s="3"/>
+      <c r="CZ69" s="3">
+        <v>1.8000000000000016E-2</v>
+      </c>
       <c r="DA69" s="3">
         <v>0.96599999999999997</v>
       </c>
       <c r="DB69" s="2">
         <v>1</v>
       </c>
-      <c r="DC69" s="3"/>
+      <c r="DC69" s="3">
+        <v>-8.0000000000000071E-3</v>
+      </c>
       <c r="DD69" s="3">
         <v>1.0149999999999999</v>
       </c>
       <c r="DE69" s="2">
         <v>0</v>
       </c>
-      <c r="DF69" s="3"/>
+      <c r="DF69" s="3">
+        <v>-2.100000000000013E-2</v>
+      </c>
       <c r="DG69" s="3">
         <v>0.97799999999999998</v>
       </c>
       <c r="DH69" s="2">
         <v>1</v>
       </c>
-      <c r="DI69" s="3"/>
+      <c r="DI69" s="3">
+        <v>-6.0000000000000053E-3</v>
+      </c>
       <c r="DJ69" s="3">
         <v>1.079</v>
       </c>
       <c r="DK69" s="2">
         <v>1</v>
       </c>
-      <c r="DL69" s="3"/>
+      <c r="DL69" s="3">
+        <v>3.6999999999999922E-2</v>
+      </c>
       <c r="DM69" s="3">
         <v>0.93300000000000005</v>
       </c>
       <c r="DN69" s="2">
         <v>1</v>
       </c>
-      <c r="DO69" s="3"/>
+      <c r="DO69" s="3">
+        <v>1.100000000000001E-2</v>
+      </c>
       <c r="DP69" s="3">
         <v>1.1279999999999999</v>
       </c>
       <c r="DQ69" s="2">
         <v>1</v>
       </c>
-      <c r="DR69" s="3"/>
+      <c r="DR69" s="3">
+        <v>-5.2000000000000046E-2</v>
+      </c>
       <c r="DS69" s="3">
         <v>1.103</v>
       </c>
       <c r="DT69" s="2">
         <v>1</v>
       </c>
-      <c r="DU69" s="3"/>
+      <c r="DU69" s="3">
+        <v>-7.0000000000001172E-3</v>
+      </c>
       <c r="DV69" s="3">
         <v>1.0349999999999999</v>
       </c>
       <c r="DW69" s="2">
         <v>0</v>
       </c>
-      <c r="DX69" s="3"/>
+      <c r="DX69" s="3">
+        <v>-0.12800000000000011</v>
+      </c>
       <c r="DY69" s="3">
         <v>0.98299999999999998</v>
       </c>
       <c r="DZ69" s="2">
         <v>0</v>
       </c>
-      <c r="EA69" s="3"/>
+      <c r="EA69" s="3">
+        <v>4.7999999999999932E-2</v>
+      </c>
       <c r="EB69" s="3">
         <v>0.94299999999999995</v>
       </c>
       <c r="EC69" s="2">
         <v>1</v>
       </c>
-      <c r="ED69" s="3"/>
+      <c r="ED69" s="3">
+        <v>-8.5999999999999965E-2</v>
+      </c>
       <c r="EE69" s="3">
         <v>1.0449999999999999</v>
       </c>
       <c r="EF69" s="2">
         <v>1</v>
       </c>
-      <c r="EG69" s="3"/>
+      <c r="EG69" s="3">
+        <v>4.9999999999999933E-2</v>
+      </c>
       <c r="EH69" s="3">
         <v>1.0049999999999999</v>
       </c>
       <c r="EI69" s="2">
         <v>0</v>
       </c>
-      <c r="EJ69" s="3"/>
+      <c r="EJ69" s="3">
+        <v>-1.5000000000000124E-2</v>
+      </c>
       <c r="EK69" s="3">
         <v>1.0409999999999999</v>
       </c>
       <c r="EL69" s="2">
         <v>1</v>
       </c>
-      <c r="EM69" s="3"/>
+      <c r="EM69" s="3">
+        <v>0.13099999999999989</v>
+      </c>
       <c r="EN69" s="3">
         <v>0.92200000000000004</v>
       </c>
       <c r="EO69" s="2">
         <v>1</v>
       </c>
-      <c r="EP69" s="3"/>
+      <c r="EP69" s="3">
+        <v>-0.16600000000000004</v>
+      </c>
     </row>
     <row r="70" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A70" s="2">

--- a/data/cristageone.cur1.xlsx
+++ b/data/cristageone.cur1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="600">
   <si>
     <t>Team ID</t>
   </si>
@@ -767,12 +767,6 @@
     <t>.969</t>
   </si>
   <si>
-    <t>0.898</t>
-  </si>
-  <si>
-    <t>0.902</t>
-  </si>
-  <si>
     <t>1.048</t>
   </si>
   <si>
@@ -791,9 +785,6 @@
     <t>0.889</t>
   </si>
   <si>
-    <t>0.894</t>
-  </si>
-  <si>
     <t>1.101</t>
   </si>
   <si>
@@ -1100,55 +1091,7 @@
     <t>0.84</t>
   </si>
   <si>
-    <t>0.856</t>
-  </si>
-  <si>
-    <t>0.796</t>
-  </si>
-  <si>
-    <t>0.854</t>
-  </si>
-  <si>
-    <t>1.216</t>
-  </si>
-  <si>
-    <t>0.876</t>
-  </si>
-  <si>
-    <t>1.281</t>
-  </si>
-  <si>
     <t>1.111</t>
-  </si>
-  <si>
-    <t>0.864</t>
-  </si>
-  <si>
-    <t>0.824</t>
-  </si>
-  <si>
-    <t>0.807</t>
-  </si>
-  <si>
-    <t>0.834</t>
-  </si>
-  <si>
-    <t>0.830</t>
-  </si>
-  <si>
-    <t>1.118</t>
-  </si>
-  <si>
-    <t>0.812</t>
-  </si>
-  <si>
-    <t>1.323</t>
-  </si>
-  <si>
-    <t>0.840</t>
-  </si>
-  <si>
-    <t>0.882</t>
   </si>
   <si>
     <t>1.106</t>
@@ -1890,7 +1833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1909,6 +1852,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1931,7 +1880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1947,6 +1896,13 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2230,10 +2186,10 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="EA47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="ED62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69:XFD69"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2391,436 +2347,436 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>516</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="BL1" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="BM1" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="BN1" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="BO1" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BT1" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BU1" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BV1" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BW1" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BX1" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="CA1" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="CB1" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="CC1" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="BK1" s="8" t="s">
+      <c r="CD1" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="BL1" s="8" t="s">
+      <c r="CE1" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="BM1" s="8" t="s">
+      <c r="CF1" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="BN1" s="8" t="s">
+      <c r="CG1" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="CH1" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="CI1" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="CK1" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="BS1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="BT1" s="8" t="s">
+      <c r="CM1" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="BU1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="BV1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="BW1" s="8" t="s">
+      <c r="CP1" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="BY1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="CA1" s="8" t="s">
+      <c r="CT1" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="CB1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="CC1" s="8" t="s">
+      <c r="CV1" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="CD1" s="8" t="s">
+      <c r="CW1" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="CE1" s="8" t="s">
+      <c r="CX1" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="CF1" s="8" t="s">
+      <c r="CY1" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="CG1" s="8" t="s">
+      <c r="CZ1" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="CH1" s="8" t="s">
+      <c r="DA1" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="CI1" s="8" t="s">
+      <c r="DB1" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="CJ1" s="8" t="s">
+      <c r="DC1" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="DD1" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="DE1" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="DF1" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="DG1" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="DH1" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="DI1" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="DJ1" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="DK1" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="DL1" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="DM1" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="DN1" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="DO1" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="DP1" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="DQ1" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="DR1" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="DS1" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DT1" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="DB1" s="8" t="s">
+      <c r="DU1" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="DC1" s="8" t="s">
+      <c r="DV1" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="DD1" s="8" t="s">
+      <c r="DW1" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="DE1" s="8" t="s">
+      <c r="DX1" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="DF1" s="8" t="s">
+      <c r="DY1" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="DG1" s="8" t="s">
+      <c r="DZ1" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="DH1" s="8" t="s">
+      <c r="EA1" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="DI1" s="8" t="s">
+      <c r="EB1" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="DJ1" s="8" t="s">
+      <c r="EC1" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="DK1" s="8" t="s">
+      <c r="ED1" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="DL1" s="8" t="s">
+      <c r="EE1" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="DM1" s="8" t="s">
+      <c r="EF1" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="DN1" s="8" t="s">
+      <c r="EG1" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="DO1" s="8" t="s">
+      <c r="EH1" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="DP1" s="8" t="s">
+      <c r="EI1" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="DQ1" s="8" t="s">
+      <c r="EJ1" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="DR1" s="8" t="s">
+      <c r="EK1" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="DS1" s="8" t="s">
+      <c r="EL1" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="DT1" s="8" t="s">
+      <c r="EM1" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="DU1" s="8" t="s">
+      <c r="EN1" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="DV1" s="8" t="s">
+      <c r="EO1" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="DW1" s="8" t="s">
+      <c r="EP1" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="DX1" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="DY1" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="DZ1" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="EA1" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="EB1" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="EC1" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="ED1" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="EE1" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="EF1" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="EG1" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="EH1" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="EI1" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="EJ1" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="EK1" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="EL1" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="EM1" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="EN1" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="EO1" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="EP1" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="2" spans="1:146" x14ac:dyDescent="0.25">
@@ -2867,7 +2823,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P2" s="2">
         <v>0</v>
@@ -3011,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="BL2" s="2">
         <v>1</v>
@@ -3128,7 +3084,7 @@
         <v>-1.9999999999998908E-3</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="CY2" s="2">
         <v>0</v>
@@ -3146,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DE2" s="2">
         <v>0</v>
@@ -3164,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="DJ2" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DK2" s="6">
         <v>0</v>
@@ -3182,7 +3138,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DP2" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="DQ2" s="6">
         <v>1</v>
@@ -4068,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="EH4" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI4" s="6">
         <v>0</v>
@@ -4103,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -4238,7 +4194,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="AV5" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AW5" s="2">
         <v>0</v>
@@ -4283,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BL5" s="2">
         <v>1</v>
@@ -4328,7 +4284,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="BZ5" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="CA5" s="2">
         <v>1</v>
@@ -4400,7 +4356,7 @@
         <v>-1.0999999999999899E-2</v>
       </c>
       <c r="CX5" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="CY5" s="2">
         <v>1</v>
@@ -4495,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
@@ -4603,7 +4559,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM6" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AN6" s="2">
         <v>0</v>
@@ -4828,7 +4784,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DJ6" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="DK6" s="6">
         <v>1</v>
@@ -4846,7 +4802,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP6" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="DQ6" s="6">
         <v>1</v>
@@ -4923,7 +4879,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -5067,7 +5023,7 @@
         <v>-7.0000000000001172E-3</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BL7" s="2">
         <v>1</v>
@@ -5112,7 +5068,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BZ7" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="CA7" s="2">
         <v>1</v>
@@ -5166,7 +5122,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="CR7" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CS7" s="2">
         <v>1</v>
@@ -5184,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="CX7" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="CY7" s="2">
         <v>1</v>
@@ -5238,7 +5194,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="DP7" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="DQ7" s="6">
         <v>1</v>
@@ -5297,7 +5253,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
@@ -5315,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -5351,7 +5307,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AB8" s="2">
         <v>0</v>
@@ -5387,7 +5343,7 @@
         <v>2.200000000000002E-2</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AN8" s="2">
         <v>0</v>
@@ -5396,7 +5352,7 @@
         <v>-1.2999999999999901E-2</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AQ8" s="2">
         <v>1</v>
@@ -5423,7 +5379,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AY8" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AZ8" s="2">
         <v>0</v>
@@ -5432,7 +5388,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="BB8" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="BC8" s="2">
         <v>0</v>
@@ -5461,7 +5417,7 @@
       <c r="BK8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="BO8" s="2">
         <v>0</v>
@@ -5470,7 +5426,7 @@
         <v>3.3000000000000029E-2</v>
       </c>
       <c r="BQ8" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="BR8" s="2">
         <v>1</v>
@@ -5508,7 +5464,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="CF8" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="CG8" s="2">
         <v>0</v>
@@ -5535,7 +5491,7 @@
         <v>0.1339999999999999</v>
       </c>
       <c r="CO8" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="CP8" s="2">
         <v>0</v>
@@ -5564,7 +5520,7 @@
         <v>-0.13900000000000001</v>
       </c>
       <c r="DA8" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="DB8" s="2">
         <v>0</v>
@@ -5573,7 +5529,7 @@
         <v>2.7000000000000024E-2</v>
       </c>
       <c r="DD8" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="DE8" s="2">
         <v>0</v>
@@ -5582,7 +5538,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="DG8" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="DH8" s="2">
         <v>0</v>
@@ -5609,7 +5565,7 @@
         <v>6.1999999999999944E-2</v>
       </c>
       <c r="DP8" s="5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="DQ8" s="6">
         <v>0</v>
@@ -5830,7 +5786,7 @@
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="BK9" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="BL9" s="2">
         <v>1</v>
@@ -5983,7 +5939,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="DJ9" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DK9" s="6">
         <v>1</v>
@@ -6689,7 +6645,7 @@
         <v>-9.7999999999999976E-2</v>
       </c>
       <c r="BT11" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="BU11" s="2">
         <v>0</v>
@@ -6761,7 +6717,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="CR11" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="CS11" s="2">
         <v>0</v>
@@ -6940,7 +6896,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -6958,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P12" s="2">
         <v>0</v>
@@ -6967,7 +6923,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -7030,7 +6986,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM12" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN12" s="2">
         <v>0</v>
@@ -7057,7 +7013,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AV12" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AW12" s="2">
         <v>0</v>
@@ -7066,7 +7022,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY12" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -7093,7 +7049,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="BH12" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BI12" s="2">
         <v>0</v>
@@ -7138,7 +7094,7 @@
         <v>-3.0000000000000027E-2</v>
       </c>
       <c r="BW12" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="BX12" s="2">
         <v>0</v>
@@ -7147,7 +7103,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="BZ12" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="CA12" s="2">
         <v>1</v>
@@ -7210,7 +7166,7 @@
         <v>-3.0999999999999917E-2</v>
       </c>
       <c r="CU12" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="CV12" s="2">
         <v>0</v>
@@ -7228,7 +7184,7 @@
         <v>-4.8999999999999932E-2</v>
       </c>
       <c r="DA12" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="DB12" s="2">
         <v>0</v>
@@ -7314,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -7332,7 +7288,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -7386,7 +7342,7 @@
         <v>-3.3999999999999919E-2</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AB13" s="2">
         <v>0</v>
@@ -7413,7 +7369,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AK13" s="2">
         <v>0</v>
@@ -7467,7 +7423,7 @@
         <v>-2.4000000000000021E-2</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BC13" s="2">
         <v>0</v>
@@ -7494,7 +7450,7 @@
         <v>-1.1000000000000121E-2</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="BL13" s="2">
         <v>0</v>
@@ -7512,7 +7468,7 @@
         <v>-3.1000000000000028E-2</v>
       </c>
       <c r="BQ13" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="BR13" s="2">
         <v>0</v>
@@ -7530,7 +7486,7 @@
         <v>-1.8000000000000016E-2</v>
       </c>
       <c r="BW13" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BX13" s="2">
         <v>0</v>
@@ -7566,7 +7522,7 @@
         <v>-5.1999999999999935E-2</v>
       </c>
       <c r="CI13" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="CJ13" s="2">
         <v>0</v>
@@ -7593,7 +7549,7 @@
         <v>4.4000000000000039E-2</v>
       </c>
       <c r="CR13" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="CS13" s="2">
         <v>0</v>
@@ -7602,7 +7558,7 @@
         <v>-0.15099999999999991</v>
       </c>
       <c r="CU13" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="CV13" s="2">
         <v>0</v>
@@ -7611,7 +7567,7 @@
         <v>0.12800000000000011</v>
       </c>
       <c r="CX13" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="CY13" s="2">
         <v>0</v>
@@ -7706,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -7724,7 +7680,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -7742,7 +7698,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
@@ -7814,7 +7770,7 @@
         <v>2.1000000000000019E-2</v>
       </c>
       <c r="AM14" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AN14" s="2">
         <v>0</v>
@@ -7850,7 +7806,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="AY14" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AZ14" s="2">
         <v>0</v>
@@ -7886,7 +7842,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="BK14" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BL14" s="2">
         <v>1</v>
@@ -8039,7 +7995,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DJ14" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DK14" s="6">
         <v>1</v>
@@ -8057,7 +8013,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP14" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="DQ14" s="6">
         <v>1</v>
@@ -8116,7 +8072,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -8143,7 +8099,7 @@
         <v>2.5000000000000133E-2</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -8161,7 +8117,7 @@
         <v>2.1000000000000019E-2</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="Y15" s="2">
         <v>0</v>
@@ -8170,7 +8126,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AB15" s="2">
         <v>0</v>
@@ -8179,7 +8135,7 @@
         <v>1.100000000000001E-2</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="AE15" s="2">
         <v>0</v>
@@ -8215,7 +8171,7 @@
         <v>2.7000000000000135E-2</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="AQ15" s="2">
         <v>0</v>
@@ -8233,7 +8189,7 @@
         <v>2.4999999999999911E-2</v>
       </c>
       <c r="AV15" s="3" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AW15" s="2">
         <v>0</v>
@@ -8242,7 +8198,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY15" s="3" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AZ15" s="2">
         <v>0</v>
@@ -8251,7 +8207,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="BB15" s="3" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="BC15" s="2">
         <v>0</v>
@@ -8269,7 +8225,7 @@
         <v>1.5999999999999903E-2</v>
       </c>
       <c r="BH15" s="3" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="BI15" s="2">
         <v>0</v>
@@ -8287,7 +8243,7 @@
         <v>-2.100000000000013E-2</v>
       </c>
       <c r="BN15" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="BO15" s="2">
         <v>0</v>
@@ -8314,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="BW15" s="3" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="BX15" s="2">
         <v>0</v>
@@ -8332,7 +8288,7 @@
         <v>-2.100000000000013E-2</v>
       </c>
       <c r="CC15" s="3" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="CD15" s="2">
         <v>0</v>
@@ -8341,7 +8297,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="CF15" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="CG15" s="2">
         <v>0</v>
@@ -8350,7 +8306,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="CI15" s="3" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="CJ15" s="2">
         <v>0</v>
@@ -8386,7 +8342,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CU15" s="3" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="CV15" s="2">
         <v>0</v>
@@ -8413,7 +8369,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="DD15" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="DE15" s="2">
         <v>0</v>
@@ -8422,7 +8378,7 @@
         <v>-2.200000000000002E-2</v>
       </c>
       <c r="DG15" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="DH15" s="2">
         <v>0</v>
@@ -8431,7 +8387,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DJ15" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="DK15" s="6">
         <v>0</v>
@@ -9918,7 +9874,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AM19" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN19" s="2">
         <v>0</v>
@@ -9990,7 +9946,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BK19" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="BL19" s="2">
         <v>1</v>
@@ -10143,7 +10099,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="DJ19" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DK19" s="6">
         <v>1</v>
@@ -10867,7 +10823,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="BZ21" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="CA21" s="2">
         <v>1</v>
@@ -10975,7 +10931,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="DJ21" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DK21" s="6">
         <v>1</v>
@@ -11169,7 +11125,7 @@
         <v>0</v>
       </c>
       <c r="AV22" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AW22" s="2">
         <v>0</v>
@@ -11196,7 +11152,7 @@
         <v>0</v>
       </c>
       <c r="BE22" s="3" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="BF22" s="2">
         <v>0</v>
@@ -11259,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="BZ22" s="3" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="CA22" s="2">
         <v>0</v>
@@ -11295,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="CL22" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="CM22" s="2">
         <v>0</v>
@@ -11313,7 +11269,7 @@
         <v>0</v>
       </c>
       <c r="CR22" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CS22" s="2">
         <v>0</v>
@@ -11439,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="EH22" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI22" s="6">
         <v>0</v>
@@ -11474,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
@@ -11483,7 +11439,7 @@
         <v>5.0000000000001155E-3</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -11492,7 +11448,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -11510,7 +11466,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P23" s="2">
         <v>0</v>
@@ -11519,7 +11475,7 @@
         <v>5.0000000000001155E-3</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -11528,7 +11484,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="V23" s="2">
         <v>1</v>
@@ -11546,7 +11502,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AB23" s="2">
         <v>0</v>
@@ -11582,7 +11538,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM23" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AN23" s="2">
         <v>0</v>
@@ -11591,7 +11547,7 @@
         <v>7.0000000000001172E-3</v>
       </c>
       <c r="AP23" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ23" s="2">
         <v>0</v>
@@ -11600,7 +11556,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="AS23" s="3" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="AT23" s="2">
         <v>1</v>
@@ -11609,7 +11565,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="AV23" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AW23" s="2">
         <v>0</v>
@@ -11618,7 +11574,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY23" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AZ23" s="2">
         <v>0</v>
@@ -11636,7 +11592,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="BE23" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="BF23" s="2">
         <v>0</v>
@@ -11645,7 +11601,7 @@
         <v>5.9999999999998943E-3</v>
       </c>
       <c r="BH23" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BI23" s="2">
         <v>0</v>
@@ -11654,7 +11610,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="BK23" s="3" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="BL23" s="2">
         <v>0</v>
@@ -11672,7 +11628,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="BQ23" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BR23" s="2">
         <v>0</v>
@@ -11681,7 +11637,7 @@
         <v>5.0000000000001155E-3</v>
       </c>
       <c r="BT23" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BU23" s="2">
         <v>0</v>
@@ -11690,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="BW23" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BX23" s="2">
         <v>0</v>
@@ -11699,7 +11655,7 @@
         <v>9.000000000000008E-3</v>
       </c>
       <c r="BZ23" s="3" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="CA23" s="2">
         <v>0</v>
@@ -11735,7 +11691,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="CL23" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CM23" s="2">
         <v>0</v>
@@ -11753,7 +11709,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="CR23" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CS23" s="2">
         <v>0</v>
@@ -11771,7 +11727,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX23" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="CY23" s="2">
         <v>0</v>
@@ -11789,7 +11745,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DD23" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="DE23" s="2">
         <v>0</v>
@@ -11798,7 +11754,7 @@
         <v>-2.200000000000002E-2</v>
       </c>
       <c r="DG23" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="DH23" s="2">
         <v>0</v>
@@ -11807,7 +11763,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DJ23" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="DK23" s="6">
         <v>0</v>
@@ -11816,7 +11772,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="DM23" s="5" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="DN23" s="6">
         <v>1</v>
@@ -11825,7 +11781,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="DP23" s="5" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="DQ23" s="6">
         <v>1</v>
@@ -11866,7 +11822,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -11884,7 +11840,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -11902,7 +11858,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P24" s="2">
         <v>1</v>
@@ -11974,7 +11930,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM24" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN24" s="2">
         <v>0</v>
@@ -12046,7 +12002,7 @@
         <v>9.9999999999988987E-4</v>
       </c>
       <c r="BK24" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BL24" s="2">
         <v>1</v>
@@ -12199,7 +12155,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DJ24" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="DK24" s="6">
         <v>1</v>
@@ -12217,7 +12173,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP24" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="DQ24" s="6">
         <v>1</v>
@@ -12366,7 +12322,7 @@
         <v>0</v>
       </c>
       <c r="AM25" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AN25" s="2">
         <v>1</v>
@@ -12429,7 +12385,7 @@
         <v>6.9999999999998952E-3</v>
       </c>
       <c r="BH25" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BI25" s="2">
         <v>0</v>
@@ -12609,7 +12565,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DP25" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="DQ25" s="6">
         <v>1</v>
@@ -12875,7 +12831,7 @@
         <v>8.8999999999999968E-2</v>
       </c>
       <c r="BZ26" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="CA26" s="2">
         <v>1</v>
@@ -12911,7 +12867,7 @@
         <v>9.3999999999999972E-2</v>
       </c>
       <c r="CL26" s="3" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="CM26" s="2">
         <v>1</v>
@@ -12929,7 +12885,7 @@
         <v>9.6000000000000085E-2</v>
       </c>
       <c r="CR26" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="CS26" s="2">
         <v>1</v>
@@ -12983,7 +12939,7 @@
         <v>-2.5000000000000022E-2</v>
       </c>
       <c r="DJ26" s="5" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="DK26" s="6">
         <v>1</v>
@@ -13019,7 +12975,7 @@
         <v>-0.16100000000000014</v>
       </c>
       <c r="DV26" s="5" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="DW26" s="6">
         <v>1</v>
@@ -13037,7 +12993,7 @@
         <v>4.9999999999998934E-3</v>
       </c>
       <c r="EB26" s="5" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="EC26" s="6">
         <v>1</v>
@@ -13055,7 +13011,7 @@
         <v>-7.0999999999999952E-2</v>
       </c>
       <c r="EH26" s="5" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="EI26" s="6">
         <v>1</v>
@@ -13073,7 +13029,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="EN26" s="5" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="EO26" s="6">
         <v>1</v>
@@ -13441,7 +13397,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="DP27" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="DQ27" s="6">
         <v>1</v>
@@ -13491,7 +13447,7 @@
         <v>-0.11399999999999999</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -13500,7 +13456,7 @@
         <v>-0.122</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -13518,7 +13474,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="P28" s="2">
         <v>1</v>
@@ -13527,7 +13483,7 @@
         <v>-0.16399999999999992</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="S28" s="2">
         <v>1</v>
@@ -13536,7 +13492,7 @@
         <v>0.16900000000000015</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="V28" s="2">
         <v>1</v>
@@ -13545,7 +13501,7 @@
         <v>-0.21499999999999997</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Y28" s="2">
         <v>1</v>
@@ -13554,7 +13510,7 @@
         <v>-0.21899999999999997</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AB28" s="2">
         <v>1</v>
@@ -13563,7 +13519,7 @@
         <v>-0.13400000000000001</v>
       </c>
       <c r="AD28" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AE28" s="2">
         <v>1</v>
@@ -13572,7 +13528,7 @@
         <v>0.14900000000000013</v>
       </c>
       <c r="AG28" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AH28" s="2">
         <v>1</v>
@@ -13599,7 +13555,7 @@
         <v>-8.0000000000000071E-3</v>
       </c>
       <c r="AP28" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ28" s="2">
         <v>1</v>
@@ -13617,7 +13573,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="AV28" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AW28" s="2">
         <v>1</v>
@@ -13635,7 +13591,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="BB28" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="BC28" s="2">
         <v>1</v>
@@ -13662,7 +13618,7 @@
         <v>-7.4999999999999956E-2</v>
       </c>
       <c r="BK28" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="BL28" s="2">
         <v>1</v>
@@ -13671,7 +13627,7 @@
         <v>-0.41900000000000004</v>
       </c>
       <c r="BN28" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="BO28" s="2">
         <v>1</v>
@@ -13680,7 +13636,7 @@
         <v>-0.31199999999999994</v>
       </c>
       <c r="BQ28" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="BR28" s="2">
         <v>1</v>
@@ -13689,7 +13645,7 @@
         <v>-0.28199999999999992</v>
       </c>
       <c r="BT28" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="BU28" s="2">
         <v>1</v>
@@ -13716,7 +13672,7 @@
         <v>-0.39</v>
       </c>
       <c r="CC28" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="CD28" s="2">
         <v>1</v>
@@ -13725,7 +13681,7 @@
         <v>-0.18899999999999995</v>
       </c>
       <c r="CF28" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="CG28" s="2">
         <v>1</v>
@@ -13734,7 +13690,7 @@
         <v>-0.32199999999999995</v>
       </c>
       <c r="CI28" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="CJ28" s="2">
         <v>1</v>
@@ -13743,7 +13699,7 @@
         <v>0.16300000000000003</v>
       </c>
       <c r="CL28" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="CM28" s="2">
         <v>1</v>
@@ -13761,7 +13717,7 @@
         <v>0.11699999999999999</v>
       </c>
       <c r="CR28" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="CS28" s="2">
         <v>1</v>
@@ -13779,7 +13735,7 @@
         <v>-7.9999999999998961E-3</v>
       </c>
       <c r="CX28" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="CY28" s="2">
         <v>1</v>
@@ -13788,7 +13744,7 @@
         <v>-0.40600000000000003</v>
       </c>
       <c r="DA28" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="DB28" s="2">
         <v>1</v>
@@ -13815,7 +13771,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="DJ28" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="DK28" s="6">
         <v>1</v>
@@ -13874,7 +13830,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -13910,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P29" s="2">
         <v>1</v>
@@ -14063,7 +14019,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="BN29" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BO29" s="2">
         <v>0</v>
@@ -14072,7 +14028,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="BQ29" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BR29" s="2">
         <v>0</v>
@@ -14189,7 +14145,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="DD29" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="DE29" s="2">
         <v>1</v>
@@ -14207,7 +14163,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DJ29" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="DK29" s="6">
         <v>1</v>
@@ -14225,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="DP29" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="DQ29" s="6">
         <v>1</v>
@@ -14455,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="3" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="BO30" s="2">
         <v>0</v>
@@ -14706,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
@@ -14814,7 +14770,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="AM31" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AN31" s="2">
         <v>1</v>
@@ -14886,7 +14842,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="BK31" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="BL31" s="2">
         <v>1</v>
@@ -14922,7 +14878,7 @@
         <v>-2.6000000000000023E-2</v>
       </c>
       <c r="BW31" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="BX31" s="2">
         <v>1</v>
@@ -15021,7 +14977,7 @@
         <v>-1.4000000000000012E-2</v>
       </c>
       <c r="DD31" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="DE31" s="2">
         <v>1</v>
@@ -15048,7 +15004,7 @@
         <v>-2.7000000000000135E-2</v>
       </c>
       <c r="DM31" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="DN31" s="6">
         <v>1</v>
@@ -15057,7 +15013,7 @@
         <v>-2.9000000000000026E-2</v>
       </c>
       <c r="DP31" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="DQ31" s="6">
         <v>1</v>
@@ -15592,7 +15548,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="V33" s="2">
         <v>1</v>
@@ -15628,7 +15584,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG33" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AH33" s="2">
         <v>1</v>
@@ -15646,7 +15602,7 @@
         <v>-1.6000000000000014E-2</v>
       </c>
       <c r="AM33" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN33" s="2">
         <v>0</v>
@@ -15664,7 +15620,7 @@
         <v>-7.0000000000001172E-3</v>
       </c>
       <c r="AS33" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AT33" s="2">
         <v>1</v>
@@ -15700,7 +15656,7 @@
         <v>1.1000000000000121E-2</v>
       </c>
       <c r="BE33" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BF33" s="2">
         <v>0</v>
@@ -15718,7 +15674,7 @@
         <v>6.9999999999998952E-3</v>
       </c>
       <c r="BK33" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="BL33" s="2">
         <v>1</v>
@@ -15930,7 +15886,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
@@ -16227,7 +16183,7 @@
         <v>1.0000000000001119E-3</v>
       </c>
       <c r="CX34" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="CY34" s="2">
         <v>1</v>
@@ -16281,7 +16237,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="DP34" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="DQ34" s="6">
         <v>1</v>
@@ -16385,7 +16341,7 @@
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Y35" s="2">
         <v>0</v>
@@ -16439,7 +16395,7 @@
         <v>3.0000000000001137E-3</v>
       </c>
       <c r="AP35" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AQ35" s="2">
         <v>0</v>
@@ -16538,7 +16494,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="BW35" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BX35" s="2">
         <v>0</v>
@@ -16556,7 +16512,7 @@
         <v>-1.7999999999999794E-2</v>
       </c>
       <c r="CC35" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CD35" s="2">
         <v>0</v>
@@ -16807,7 +16763,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -16870,7 +16826,7 @@
         <v>2.300000000000002E-2</v>
       </c>
       <c r="AM36" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AN36" s="2">
         <v>0</v>
@@ -17041,7 +16997,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CR36" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="CS36" s="2">
         <v>0</v>
@@ -17077,7 +17033,7 @@
         <v>9.000000000000008E-3</v>
       </c>
       <c r="DD36" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="DE36" s="2">
         <v>0</v>
@@ -17104,7 +17060,7 @@
         <v>-3.300000000000014E-2</v>
       </c>
       <c r="DM36" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="DN36" s="6">
         <v>1</v>
@@ -17113,7 +17069,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="DP36" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="DQ36" s="6">
         <v>1</v>
@@ -17999,7 +17955,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="EH38" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI38" s="6">
         <v>0</v>
@@ -18439,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="EH39" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI39" s="6">
         <v>0</v>
@@ -18537,7 +18493,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y40" s="2">
         <v>0</v>
@@ -19417,7 +19373,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y42" s="2">
         <v>0</v>
@@ -19462,7 +19418,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="AM42" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AN42" s="2">
         <v>0</v>
@@ -19759,7 +19715,7 @@
         <v>-2.8000000000000025E-2</v>
       </c>
       <c r="EH42" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI42" s="6">
         <v>0</v>
@@ -20252,7 +20208,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -20306,7 +20262,7 @@
         <v>1.8000000000000016E-2</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AB44" s="2">
         <v>0</v>
@@ -20342,7 +20298,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="AM44" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="AN44" s="2">
         <v>0</v>
@@ -20351,7 +20307,7 @@
         <v>7.0000000000001172E-3</v>
       </c>
       <c r="AP44" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AQ44" s="2">
         <v>0</v>
@@ -20369,7 +20325,7 @@
         <v>2.4999999999999911E-2</v>
       </c>
       <c r="AV44" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AW44" s="2">
         <v>0</v>
@@ -20378,7 +20334,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY44" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AZ44" s="2">
         <v>0</v>
@@ -20432,7 +20388,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="BQ44" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="BR44" s="2">
         <v>0</v>
@@ -20450,7 +20406,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="BW44" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BX44" s="2">
         <v>0</v>
@@ -20468,7 +20424,7 @@
         <v>-1.1000000000000121E-2</v>
       </c>
       <c r="CC44" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="CD44" s="2">
         <v>0</v>
@@ -20495,7 +20451,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="CL44" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CM44" s="2">
         <v>0</v>
@@ -20549,7 +20505,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="DD44" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="DE44" s="2">
         <v>0</v>
@@ -20558,7 +20514,7 @@
         <v>-3.2000000000000028E-2</v>
       </c>
       <c r="DG44" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="DH44" s="2">
         <v>0</v>
@@ -20567,7 +20523,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DJ44" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="DK44" s="2">
         <v>1</v>
@@ -20978,7 +20934,7 @@
         <v>1.0000000000001119E-3</v>
       </c>
       <c r="DS45" s="3" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="DT45" s="2">
         <v>1</v>
@@ -21032,7 +20988,7 @@
         <v>0</v>
       </c>
       <c r="EK45" s="3" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="EL45" s="2">
         <v>1</v>
@@ -21463,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="EH46" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI46" s="2">
         <v>0</v>
@@ -21678,7 +21634,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BL47" s="2">
         <v>1</v>
@@ -22762,7 +22718,7 @@
         <v>0</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -22798,7 +22754,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P50" s="2">
         <v>1</v>
@@ -22942,7 +22898,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BK50" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BL50" s="2">
         <v>1</v>
@@ -22951,7 +22907,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="BN50" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="BO50" s="2">
         <v>0</v>
@@ -23059,7 +23015,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX50" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="CY50" s="2">
         <v>1</v>
@@ -23077,7 +23033,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DD50" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DE50" s="2">
         <v>1</v>
@@ -23113,7 +23069,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DP50" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="DQ50" s="2">
         <v>1</v>
@@ -23299,7 +23255,7 @@
         <v>2.4000000000000021E-2</v>
       </c>
       <c r="BB51" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BC51" s="2">
         <v>0</v>
@@ -23479,7 +23435,7 @@
         <v>-2.6000000000000023E-2</v>
       </c>
       <c r="DJ51" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="DK51" s="2">
         <v>1</v>
@@ -23497,7 +23453,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="DP51" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="DQ51" s="2">
         <v>1</v>
@@ -23602,7 +23558,7 @@
         <v>-0.26500000000000001</v>
       </c>
       <c r="BN52" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="BO52" s="2">
         <v>0</v>
@@ -23611,7 +23567,7 @@
         <v>-0.17899999999999994</v>
       </c>
       <c r="BQ52" s="3" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="BR52" s="2">
         <v>0</v>
@@ -23620,7 +23576,7 @@
         <v>-0.20299999999999996</v>
       </c>
       <c r="BT52" s="3" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="BU52" s="2">
         <v>0</v>
@@ -23703,7 +23659,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -23730,7 +23686,7 @@
         <v>5.0000000000001155E-3</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -23757,7 +23713,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AA53" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="AB53" s="2">
         <v>0</v>
@@ -23793,7 +23749,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM53" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN53" s="2">
         <v>0</v>
@@ -23820,7 +23776,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="AV53" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AW53" s="2">
         <v>0</v>
@@ -23829,7 +23785,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY53" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AZ53" s="2">
         <v>0</v>
@@ -23838,7 +23794,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="BB53" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="BC53" s="2">
         <v>0</v>
@@ -23856,7 +23812,7 @@
         <v>5.9999999999998943E-3</v>
       </c>
       <c r="BH53" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BI53" s="2">
         <v>0</v>
@@ -23865,7 +23821,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="BK53" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="BL53" s="2">
         <v>1</v>
@@ -23874,7 +23830,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BN53" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BO53" s="2">
         <v>0</v>
@@ -23901,7 +23857,7 @@
         <v>0</v>
       </c>
       <c r="BW53" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BX53" s="2">
         <v>0</v>
@@ -23928,7 +23884,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="CF53" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="CG53" s="2">
         <v>0</v>
@@ -23973,7 +23929,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CU53" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="CV53" s="2">
         <v>0</v>
@@ -23982,7 +23938,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX53" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="CY53" s="2">
         <v>1</v>
@@ -24000,7 +23956,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DD53" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="DE53" s="2">
         <v>1</v>
@@ -24018,7 +23974,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DJ53" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="DK53" s="2">
         <v>1</v>
@@ -24036,7 +23992,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="DP53" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="DQ53" s="2">
         <v>1</v>
@@ -24258,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="BN54" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BO54" s="2">
         <v>0</v>
@@ -24474,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="EH54" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI54" s="2">
         <v>0</v>
@@ -24518,7 +24474,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -24536,7 +24492,7 @@
         <v>4.9999999999998934E-3</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="M55" s="2">
         <v>1</v>
@@ -24545,7 +24501,7 @@
         <v>1.2300000000000089E-2</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P55" s="2">
         <v>1</v>
@@ -24554,7 +24510,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
@@ -24563,7 +24519,7 @@
         <v>1.2700000000000045E-2</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="V55" s="2">
         <v>1</v>
@@ -24572,7 +24528,7 @@
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="Y55" s="2">
         <v>0</v>
@@ -24590,7 +24546,7 @@
         <v>5.9999999999998943E-3</v>
       </c>
       <c r="AD55" s="3" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="AE55" s="2">
         <v>0</v>
@@ -24599,7 +24555,7 @@
         <v>6.9000000000000172E-3</v>
       </c>
       <c r="AG55" s="3" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="AH55" s="2">
         <v>1</v>
@@ -24608,7 +24564,7 @@
         <v>1.3600000000000056E-2</v>
       </c>
       <c r="AJ55" s="3" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="AK55" s="2">
         <v>0</v>
@@ -24635,7 +24591,7 @@
         <v>-6.0000000000000053E-3</v>
       </c>
       <c r="AS55" s="3" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="AT55" s="2">
         <v>1</v>
@@ -24671,7 +24627,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="BE55" s="3" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="BF55" s="2">
         <v>1</v>
@@ -24689,7 +24645,7 @@
         <v>-7.0000000000001172E-3</v>
       </c>
       <c r="BK55" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="BL55" s="2">
         <v>1</v>
@@ -24698,7 +24654,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="BN55" s="3" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="BO55" s="2">
         <v>0</v>
@@ -24725,7 +24681,7 @@
         <v>-7.0000000000001172E-3</v>
       </c>
       <c r="BW55" s="3" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="BX55" s="2">
         <v>0</v>
@@ -24734,7 +24690,7 @@
         <v>1.0099999999999998E-2</v>
       </c>
       <c r="BZ55" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="CA55" s="2">
         <v>1</v>
@@ -24743,7 +24699,7 @@
         <v>-9.000000000000119E-3</v>
       </c>
       <c r="CC55" s="3" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="CD55" s="2">
         <v>0</v>
@@ -24752,7 +24708,7 @@
         <v>1.2299999999999978E-2</v>
       </c>
       <c r="CF55" s="3" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="CG55" s="2">
         <v>0</v>
@@ -24761,7 +24717,7 @@
         <v>-4.8000000000000265E-3</v>
       </c>
       <c r="CI55" s="3" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="CJ55" s="2">
         <v>0</v>
@@ -24779,7 +24735,7 @@
         <v>0</v>
       </c>
       <c r="CO55" s="3" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="CP55" s="2">
         <v>0</v>
@@ -24788,7 +24744,7 @@
         <v>1.2600000000000056E-2</v>
       </c>
       <c r="CR55" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CS55" s="2">
         <v>1</v>
@@ -24806,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="CX55" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="CY55" s="2">
         <v>1</v>
@@ -24815,7 +24771,7 @@
         <v>-1.1000000000000121E-2</v>
       </c>
       <c r="DA55" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="DB55" s="2">
         <v>1</v>
@@ -24833,7 +24789,7 @@
         <v>-3.400000000000003E-2</v>
       </c>
       <c r="DG55" s="3" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="DH55" s="2">
         <v>0</v>
@@ -24851,7 +24807,7 @@
         <v>-5.0000000000001155E-3</v>
       </c>
       <c r="DM55" s="3" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="DN55" s="2">
         <v>1</v>
@@ -24860,7 +24816,7 @@
         <v>1.5799999999999925E-2</v>
       </c>
       <c r="DP55" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="DQ55" s="2">
         <v>1</v>
@@ -25001,7 +24957,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AM56" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN56" s="2">
         <v>0</v>
@@ -25073,7 +25029,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BK56" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="BL56" s="2">
         <v>1</v>
@@ -25226,7 +25182,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="DJ56" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="DK56" s="2">
         <v>1</v>
@@ -25717,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -25825,7 +25781,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM58" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AN58" s="2">
         <v>0</v>
@@ -26050,7 +26006,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DJ58" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="DK58" s="2">
         <v>1</v>
@@ -26068,7 +26024,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP58" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="DQ58" s="2">
         <v>1</v>
@@ -26101,7 +26057,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D59" s="2">
         <v>0</v>
@@ -26119,7 +26075,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J59" s="2">
         <v>0</v>
@@ -26209,7 +26165,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM59" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AN59" s="2">
         <v>0</v>
@@ -26416,7 +26372,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DD59" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="DE59" s="2">
         <v>0</v>
@@ -26434,7 +26390,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="DJ59" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="DK59" s="2">
         <v>0</v>
@@ -26452,7 +26408,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DP59" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="DQ59" s="2">
         <v>1</v>
@@ -26584,7 +26540,7 @@
         <v>-1.7999999999999905E-2</v>
       </c>
       <c r="AJ60" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AK60" s="2">
         <v>0</v>
@@ -26665,7 +26621,7 @@
         <v>-3.400000000000003E-2</v>
       </c>
       <c r="BK60" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="BL60" s="2">
         <v>0</v>
@@ -26674,7 +26630,7 @@
         <v>-0.44200000000000006</v>
       </c>
       <c r="BN60" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="BO60" s="2">
         <v>1</v>
@@ -26683,7 +26639,7 @@
         <v>-0.22699999999999998</v>
       </c>
       <c r="BQ60" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="BR60" s="2">
         <v>1</v>
@@ -26692,7 +26648,7 @@
         <v>-0.29699999999999993</v>
       </c>
       <c r="BT60" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="BU60" s="2">
         <v>0</v>
@@ -26710,7 +26666,7 @@
         <v>0.10399999999999998</v>
       </c>
       <c r="BZ60" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="CA60" s="2">
         <v>1</v>
@@ -26728,7 +26684,7 @@
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="CF60" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="CG60" s="2">
         <v>1</v>
@@ -26746,7 +26702,7 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="CL60" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="CM60" s="2">
         <v>1</v>
@@ -26764,7 +26720,7 @@
         <v>9.6000000000000085E-2</v>
       </c>
       <c r="CR60" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="CS60" s="2">
         <v>1</v>
@@ -26782,7 +26738,7 @@
         <v>-3.1999999999999917E-2</v>
       </c>
       <c r="CX60" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="CY60" s="2">
         <v>0</v>
@@ -26800,7 +26756,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
       <c r="DD60" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="DE60" s="2">
         <v>1</v>
@@ -26818,7 +26774,7 @@
         <v>-1.6000000000000014E-2</v>
       </c>
       <c r="DJ60" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="DK60" s="2">
         <v>0</v>
@@ -26836,7 +26792,7 @@
         <v>5.0999999999999934E-2</v>
       </c>
       <c r="DP60" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="DQ60" s="2">
         <v>0</v>
@@ -27007,7 +26963,7 @@
       <c r="BH61" s="3"/>
       <c r="BJ61" s="3"/>
       <c r="BK61" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="BL61" s="2">
         <v>0</v>
@@ -27025,7 +26981,7 @@
         <v>-2.7000000000000024E-2</v>
       </c>
       <c r="BQ61" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="BR61" s="2">
         <v>0</v>
@@ -27034,7 +26990,7 @@
         <v>8.3000000000000185E-2</v>
       </c>
       <c r="BT61" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="BU61" s="2">
         <v>0</v>
@@ -27052,7 +27008,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="BZ61" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="CA61" s="2">
         <v>1</v>
@@ -27070,7 +27026,7 @@
         <v>7.900000000000007E-2</v>
       </c>
       <c r="CF61" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="CG61" s="2">
         <v>1</v>
@@ -27088,7 +27044,7 @@
         <v>0.17799999999999994</v>
       </c>
       <c r="CL61" s="3" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="CM61" s="2">
         <v>1</v>
@@ -27106,7 +27062,7 @@
         <v>0.1160000000000001</v>
       </c>
       <c r="CR61" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="CS61" s="2">
         <v>1</v>
@@ -27124,7 +27080,7 @@
         <v>-4.4999999999999929E-2</v>
       </c>
       <c r="CX61" s="3" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="CY61" s="2">
         <v>1</v>
@@ -27278,7 +27234,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D63" s="2">
         <v>1</v>
@@ -27386,7 +27342,7 @@
         <v>-2.5000000000000022E-2</v>
       </c>
       <c r="AM63" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN63" s="2">
         <v>0</v>
@@ -27458,7 +27414,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="BK63" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="BL63" s="2">
         <v>1</v>
@@ -27503,7 +27459,7 @@
         <v>-1.4000000000000012E-2</v>
       </c>
       <c r="BZ63" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="CA63" s="2">
         <v>1</v>
@@ -27611,7 +27567,7 @@
         <v>-1.7000000000000015E-2</v>
       </c>
       <c r="DJ63" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="DK63" s="2">
         <v>1</v>
@@ -27629,7 +27585,7 @@
         <v>3.6999999999999922E-2</v>
       </c>
       <c r="DP63" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DQ63" s="2">
         <v>1</v>
@@ -27638,7 +27594,7 @@
         <v>-0.125</v>
       </c>
       <c r="DS63" s="3" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="DT63" s="2">
         <v>1</v>
@@ -27683,7 +27639,7 @@
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="EH63" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="EI63" s="2">
         <v>1</v>
@@ -28158,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D65" s="2">
         <v>0</v>
@@ -28194,7 +28150,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P65" s="2">
         <v>0</v>
@@ -28257,7 +28213,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="AJ65" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AK65" s="2">
         <v>0</v>
@@ -28266,7 +28222,7 @@
         <v>3.2000000000000028E-2</v>
       </c>
       <c r="AM65" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="AN65" s="2">
         <v>0</v>
@@ -28329,7 +28285,7 @@
         <v>1.0999999999999899E-2</v>
       </c>
       <c r="BH65" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="BI65" s="2">
         <v>0</v>
@@ -28365,7 +28321,7 @@
         <v>7.0000000000001172E-3</v>
       </c>
       <c r="BT65" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BU65" s="2">
         <v>0</v>
@@ -28383,7 +28339,7 @@
         <v>2.300000000000002E-2</v>
       </c>
       <c r="BZ65" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="CA65" s="2">
         <v>0</v>
@@ -28437,7 +28393,7 @@
         <v>2.9000000000000026E-2</v>
       </c>
       <c r="CR65" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="CS65" s="2">
         <v>0</v>
@@ -28947,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="EH66" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI66" s="2">
         <v>0</v>
@@ -28991,7 +28947,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="G67" s="2">
         <v>1</v>
@@ -29009,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
@@ -29027,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="S67" s="2">
         <v>0</v>
@@ -29045,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="Y67" s="2">
         <v>0</v>
@@ -29054,7 +29010,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AA67" s="3" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="AB67" s="2">
         <v>0</v>
@@ -29063,7 +29019,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="AD67" s="3" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AE67" s="2">
         <v>0</v>
@@ -29072,7 +29028,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="3" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="AH67" s="2">
         <v>0</v>
@@ -29135,7 +29091,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BB67" s="3" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="BC67" s="2">
         <v>0</v>
@@ -29144,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="BE67" s="3" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="BF67" s="2">
         <v>0</v>
@@ -29171,7 +29127,7 @@
         <v>0</v>
       </c>
       <c r="BN67" s="3" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="BO67" s="2">
         <v>0</v>
@@ -29198,7 +29154,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BW67" s="3" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="BX67" s="2">
         <v>0</v>
@@ -29216,7 +29172,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CC67" s="3" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="CD67" s="2">
         <v>0</v>
@@ -29225,7 +29181,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="CF67" s="3" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="CG67" s="2">
         <v>0</v>
@@ -29234,7 +29190,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="CI67" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="CJ67" s="2">
         <v>0</v>
@@ -29252,7 +29208,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CO67" s="3" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="CP67" s="2">
         <v>0</v>
@@ -29288,7 +29244,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="DA67" s="3" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="DB67" s="2">
         <v>0</v>
@@ -29306,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="DG67" s="3" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="DH67" s="2">
         <v>0</v>
@@ -29360,7 +29316,7 @@
         <v>0</v>
       </c>
       <c r="DY67" s="3" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="DZ67" s="2">
         <v>1</v>
@@ -29378,7 +29334,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="EE67" s="3" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="EF67" s="2">
         <v>0</v>
@@ -29387,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="EH67" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI67" s="2">
         <v>0</v>
@@ -29396,7 +29352,7 @@
         <v>0</v>
       </c>
       <c r="EK67" s="3" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="EL67" s="2">
         <v>1</v>
@@ -29414,444 +29370,444 @@
         <v>-1.0000000000001119E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:146" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="10">
         <v>77</v>
       </c>
-      <c r="B68" s="1">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="3">
+      <c r="B68" s="11">
+        <v>1</v>
+      </c>
+      <c r="C68" s="12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D68" s="10">
+        <v>1</v>
+      </c>
+      <c r="E68" s="12">
+        <v>-9.9999999999988987E-4</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G68" s="10">
+        <v>1</v>
+      </c>
+      <c r="H68" s="12">
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="I68" s="12">
+        <v>1.002</v>
+      </c>
+      <c r="J68" s="10">
+        <v>0</v>
+      </c>
+      <c r="K68" s="12">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="L68" s="12">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="M68" s="10">
+        <v>1</v>
+      </c>
+      <c r="N68" s="12">
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="O68" s="12">
+        <v>1.08</v>
+      </c>
+      <c r="P68" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="R68" s="12">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="S68" s="10">
+        <v>0</v>
+      </c>
+      <c r="T68" s="12">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="U68" s="12">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="V68" s="10">
+        <v>1</v>
+      </c>
+      <c r="W68" s="12">
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="X68" s="12">
+        <v>0.996</v>
+      </c>
+      <c r="Y68" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="12">
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="AA68" s="12">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="AB68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="12">
+        <v>2.9999999999998916E-3</v>
+      </c>
+      <c r="AD68" s="12">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="AE68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="12">
+        <v>1.6999999999999904E-2</v>
+      </c>
+      <c r="AG68" s="12">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="AH68" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI68" s="12">
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="AJ68" s="12">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="AK68" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL68" s="12">
         <v>-6.0000000000000053E-3</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" s="2">
-        <v>0</v>
-      </c>
-      <c r="H68" s="3">
-        <v>6.7999999999999949E-2</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="3">
-        <v>-0.10299999999999987</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M68" s="2">
-        <v>1</v>
-      </c>
-      <c r="N68" s="3">
-        <v>-2.5999999999999912E-2</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P68" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>9.000000000000119E-3</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S68" s="2">
-        <v>0</v>
-      </c>
-      <c r="T68" s="3">
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="U68" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V68" s="2">
-        <v>0</v>
-      </c>
-      <c r="W68" s="3">
-        <v>6.899999999999995E-2</v>
-      </c>
-      <c r="X68" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y68" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="3">
-        <v>5.699999999999994E-2</v>
-      </c>
-      <c r="AA68" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="3">
-        <v>-9.7999999999999976E-2</v>
-      </c>
-      <c r="AD68" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF68" s="3">
-        <v>-5.3000000000000047E-2</v>
-      </c>
-      <c r="AG68" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI68" s="3">
-        <v>-2.0999999999999908E-2</v>
-      </c>
-      <c r="AJ68" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL68" s="3">
-        <v>-1.9000000000000017E-2</v>
-      </c>
-      <c r="AM68" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN68" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO68" s="3">
-        <v>-1.8999999999999906E-2</v>
-      </c>
-      <c r="AP68" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ68" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR68" s="3">
+      <c r="AM68" s="12">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="AN68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO68" s="12">
+        <v>1.0000000000001119E-3</v>
+      </c>
+      <c r="AP68" s="12">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="AQ68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="12">
+        <v>-1.0000000000001119E-3</v>
+      </c>
+      <c r="AS68" s="12">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="AT68" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU68" s="12">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="AV68" s="12">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="AW68" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX68" s="12">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="AY68" s="12">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="AZ68" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA68" s="12">
+        <v>-1.0000000000001119E-3</v>
+      </c>
+      <c r="BB68" s="12">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="BC68" s="10">
+        <v>0</v>
+      </c>
+      <c r="BD68" s="12">
+        <v>1.9999999999998908E-3</v>
+      </c>
+      <c r="BE68" s="12">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="BF68" s="10">
+        <v>1</v>
+      </c>
+      <c r="BG68" s="12">
+        <v>1.4999999999999902E-2</v>
+      </c>
+      <c r="BH68" s="12">
+        <v>1.002</v>
+      </c>
+      <c r="BI68" s="10">
+        <v>0</v>
+      </c>
+      <c r="BJ68" s="12">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="BK68" s="12">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="BL68" s="10">
+        <v>1</v>
+      </c>
+      <c r="BM68" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN68" s="12">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="BO68" s="10">
+        <v>0</v>
+      </c>
+      <c r="BP68" s="12">
+        <v>7.9999999999998961E-3</v>
+      </c>
+      <c r="BQ68" s="12">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="BR68" s="10">
+        <v>1</v>
+      </c>
+      <c r="BS68" s="12">
+        <v>-1.0000000000001119E-3</v>
+      </c>
+      <c r="BT68" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="BU68" s="10">
+        <v>0</v>
+      </c>
+      <c r="BV68" s="12">
+        <v>-1.8000000000000016E-2</v>
+      </c>
+      <c r="BW68" s="12">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="BX68" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY68" s="12">
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="BZ68" s="12">
+        <v>1.137</v>
+      </c>
+      <c r="CA68" s="10">
+        <v>1</v>
+      </c>
+      <c r="CB68" s="12">
+        <v>-9.9999999999988987E-4</v>
+      </c>
+      <c r="CC68" s="12">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="CD68" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE68" s="12">
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="CF68" s="12">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="CG68" s="10">
+        <v>0</v>
+      </c>
+      <c r="CH68" s="12">
+        <v>6.9999999999998952E-3</v>
+      </c>
+      <c r="CI68" s="12">
+        <v>1.008</v>
+      </c>
+      <c r="CJ68" s="10">
+        <v>0</v>
+      </c>
+      <c r="CK68" s="12">
+        <v>1.7000000000000015E-2</v>
+      </c>
+      <c r="CL68" s="12">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="CM68" s="10">
+        <v>0</v>
+      </c>
+      <c r="CN68" s="12">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="CO68" s="12">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="CP68" s="10">
+        <v>0</v>
+      </c>
+      <c r="CQ68" s="12">
+        <v>-9.000000000000008E-3</v>
+      </c>
+      <c r="CR68" s="12">
+        <v>1.012</v>
+      </c>
+      <c r="CS68" s="10">
+        <v>0</v>
+      </c>
+      <c r="CT68" s="12">
+        <v>-1.6999999999999904E-2</v>
+      </c>
+      <c r="CU68" s="12">
+        <v>1.004</v>
+      </c>
+      <c r="CV68" s="10">
+        <v>0</v>
+      </c>
+      <c r="CW68" s="12">
+        <v>-8.999999999999897E-3</v>
+      </c>
+      <c r="CX68" s="12">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="CY68" s="10">
+        <v>1</v>
+      </c>
+      <c r="CZ68" s="12">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="DA68" s="12">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="DB68" s="10">
+        <v>1</v>
+      </c>
+      <c r="DC68" s="12">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="DD68" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="DE68" s="10">
+        <v>1</v>
+      </c>
+      <c r="DF68" s="12">
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="DG68" s="12">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="DH68" s="10">
+        <v>0</v>
+      </c>
+      <c r="DI68" s="12">
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="DJ68" s="12">
+        <v>1.038</v>
+      </c>
+      <c r="DK68" s="10">
+        <v>0</v>
+      </c>
+      <c r="DL68" s="12">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="DM68" s="12">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="DN68" s="10">
+        <v>1</v>
+      </c>
+      <c r="DO68" s="12">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="DP68" s="12">
+        <v>1.17</v>
+      </c>
+      <c r="DQ68" s="10">
+        <v>1</v>
+      </c>
+      <c r="DR68" s="12">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="DS68" s="12">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="DT68" s="10">
+        <v>1</v>
+      </c>
+      <c r="DU68" s="12">
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="DV68" s="12">
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="DW68" s="10">
+        <v>1</v>
+      </c>
+      <c r="DX68" s="12">
+        <v>-9.000000000000119E-3</v>
+      </c>
+      <c r="DY68" s="12">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="DZ68" s="10">
+        <v>1</v>
+      </c>
+      <c r="EA68" s="12">
+        <v>-9.000000000000008E-3</v>
+      </c>
+      <c r="EB68" s="12">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="EC68" s="10">
+        <v>1</v>
+      </c>
+      <c r="ED68" s="12">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="EE68" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="EF68" s="10">
+        <v>0</v>
+      </c>
+      <c r="EG68" s="12">
+        <v>0</v>
+      </c>
+      <c r="EH68" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="EI68" s="10">
+        <v>0</v>
+      </c>
+      <c r="EJ68" s="12">
+        <v>0</v>
+      </c>
+      <c r="EK68" s="12">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="EL68" s="10">
+        <v>1</v>
+      </c>
+      <c r="EM68" s="12">
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="EN68" s="12">
+        <v>1.073</v>
+      </c>
+      <c r="EO68" s="10">
+        <v>1</v>
+      </c>
+      <c r="EP68" s="12">
         <v>-1.5000000000000124E-2</v>
-      </c>
-      <c r="AS68" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AT68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU68" s="3">
-        <v>3.2999999999999918E-2</v>
-      </c>
-      <c r="AV68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW68" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX68" s="3">
-        <v>1.8000000000000016E-2</v>
-      </c>
-      <c r="AY68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AZ68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BA68" s="3">
-        <v>-5.3000000000000047E-2</v>
-      </c>
-      <c r="BB68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BC68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD68" s="3">
-        <v>-3.5000000000000031E-2</v>
-      </c>
-      <c r="BE68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="BF68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG68" s="3">
-        <v>-1.0000000000000009E-3</v>
-      </c>
-      <c r="BH68" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI68" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ68" s="3">
-        <v>-1.9000000000000017E-2</v>
-      </c>
-      <c r="BK68" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM68" s="3">
-        <v>1.2000000000000011E-2</v>
-      </c>
-      <c r="BN68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BO68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP68" s="3">
-        <v>4.3000000000000038E-2</v>
-      </c>
-      <c r="BQ68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BR68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS68" s="3">
-        <v>-8.0000000000000071E-2</v>
-      </c>
-      <c r="BT68" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BU68" s="2">
-        <v>1</v>
-      </c>
-      <c r="BV68" s="3">
-        <v>-7.0000000000000062E-2</v>
-      </c>
-      <c r="BW68" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BX68" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY68" s="3">
-        <v>3.8000000000000034E-2</v>
-      </c>
-      <c r="BZ68" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="CA68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CB68" s="3">
-        <v>1.8000000000000016E-2</v>
-      </c>
-      <c r="CC68" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CD68" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE68" s="3">
-        <v>4.1999999999999926E-2</v>
-      </c>
-      <c r="CF68" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CG68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CH68" s="3">
-        <v>3.8999999999999924E-2</v>
-      </c>
-      <c r="CI68" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="CJ68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CK68" s="3">
-        <v>-7.2999999999999954E-2</v>
-      </c>
-      <c r="CL68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CN68" s="3">
-        <v>-7.1999999999999953E-2</v>
-      </c>
-      <c r="CO68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="CP68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ68" s="3">
-        <v>-4.2999999999999927E-2</v>
-      </c>
-      <c r="CR68" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="CS68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CT68" s="3">
-        <v>-6.1999999999999944E-2</v>
-      </c>
-      <c r="CU68" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="CV68" s="2">
-        <v>0</v>
-      </c>
-      <c r="CW68" s="3">
-        <v>1.1000000000000121E-2</v>
-      </c>
-      <c r="CX68" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CY68" s="2">
-        <v>1</v>
-      </c>
-      <c r="CZ68" s="3">
-        <v>-1.5999999999999792E-2</v>
-      </c>
-      <c r="DA68" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DB68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DC68" s="3">
-        <v>4.2000000000000037E-2</v>
-      </c>
-      <c r="DD68" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="DE68" s="2">
-        <v>0</v>
-      </c>
-      <c r="DF68" s="3">
-        <v>-3.9000000000000035E-2</v>
-      </c>
-      <c r="DG68" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="DH68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DI68" s="3">
-        <v>-7.4999999999999956E-2</v>
-      </c>
-      <c r="DJ68" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="DK68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DL68" s="3">
-        <v>0.10299999999999998</v>
-      </c>
-      <c r="DM68" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DO68" s="3">
-        <v>-8.0000000000000071E-3</v>
-      </c>
-      <c r="DP68" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DR68" s="3">
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="DS68" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="DT68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DU68" s="3">
-        <v>-3.2000000000000028E-2</v>
-      </c>
-      <c r="DV68" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="DW68" s="2">
-        <v>1</v>
-      </c>
-      <c r="DX68" s="3">
-        <v>-1.6000000000000014E-2</v>
-      </c>
-      <c r="DY68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="DZ68" s="2">
-        <v>0</v>
-      </c>
-      <c r="EA68" s="3">
-        <v>6.5999999999999837E-2</v>
-      </c>
-      <c r="EB68" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="EC68" s="2">
-        <v>1</v>
-      </c>
-      <c r="ED68" s="3">
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="EE68" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="EF68" s="2">
-        <v>1</v>
-      </c>
-      <c r="EG68" s="3">
-        <v>-0.10299999999999998</v>
-      </c>
-      <c r="EH68" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EI68" s="2">
-        <v>0</v>
-      </c>
-      <c r="EJ68" s="3">
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="EK68" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EL68" s="2">
-        <v>1</v>
-      </c>
-      <c r="EM68" s="3">
-        <v>-2.1000000000000019E-2</v>
-      </c>
-      <c r="EN68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="EO68" s="2">
-        <v>1</v>
-      </c>
-      <c r="EP68" s="3">
-        <v>-9.000000000000119E-3</v>
       </c>
     </row>
     <row r="69" spans="1:146" x14ac:dyDescent="0.25">
@@ -30294,372 +30250,372 @@
         <v>-0.16600000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:146" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>80</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>194</v>
+      <c r="C70" s="9">
+        <v>1.0740000000000001</v>
       </c>
       <c r="D70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="3">
-        <v>-0.127</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>357</v>
+        <v>-1.6999999999999904E-2</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.98399999999999999</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
-        <v>-0.10199999999999998</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>358</v>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1.042</v>
       </c>
       <c r="J70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="3">
-        <v>-0.14800000000000002</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>359</v>
+        <v>4.1000000000000147E-2</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0.94599999999999995</v>
       </c>
       <c r="M70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" s="3">
-        <v>-0.15399999999999991</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>360</v>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1.073</v>
       </c>
       <c r="P70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="3">
-        <v>-0.21099999999999997</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>361</v>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1.014</v>
       </c>
       <c r="S70" s="2">
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="U70" s="3" t="s">
-        <v>358</v>
+        <v>4.7000000000000042E-2</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0.95099999999999996</v>
       </c>
       <c r="V70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70" s="3">
-        <v>-8.2999999999999963E-2</v>
-      </c>
-      <c r="X70" s="3" t="s">
-        <v>115</v>
+        <v>7.0000000000000062E-3</v>
+      </c>
+      <c r="X70" s="3">
+        <v>1.014</v>
       </c>
       <c r="Y70" s="2">
         <v>0</v>
       </c>
       <c r="Z70" s="3">
-        <v>0.1140000000000001</v>
-      </c>
-      <c r="AA70" s="3" t="s">
-        <v>362</v>
+        <v>4.3000000000000038E-2</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>1.0489999999999999</v>
       </c>
       <c r="AB70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70" s="3">
-        <v>-0.123</v>
-      </c>
-      <c r="AD70" s="3" t="s">
-        <v>363</v>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>1.026</v>
       </c>
       <c r="AE70" s="2">
         <v>0</v>
       </c>
       <c r="AF70" s="3">
-        <v>0.31799999999999995</v>
-      </c>
-      <c r="AG70" s="3" t="s">
-        <v>315</v>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0.94299999999999995</v>
       </c>
       <c r="AH70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI70" s="3">
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="AJ70" s="3" t="s">
-        <v>364</v>
+        <v>0</v>
+      </c>
+      <c r="AJ70" s="3">
+        <v>1.002</v>
       </c>
       <c r="AK70" s="2">
         <v>0</v>
       </c>
       <c r="AL70" s="3">
-        <v>0.15300000000000002</v>
-      </c>
-      <c r="AM70" s="3" t="s">
-        <v>321</v>
+        <v>3.3000000000000029E-2</v>
+      </c>
+      <c r="AM70" s="3">
+        <v>1.0820000000000001</v>
       </c>
       <c r="AN70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO70" s="3">
-        <v>-0.20299999999999996</v>
-      </c>
-      <c r="AP70" s="3" t="s">
-        <v>178</v>
+        <v>1.5000000000000124E-2</v>
+      </c>
+      <c r="AP70" s="3">
+        <v>0.98599999999999999</v>
       </c>
       <c r="AQ70" s="2">
         <v>0</v>
       </c>
       <c r="AR70" s="3">
-        <v>-5.7000000000000051E-2</v>
-      </c>
-      <c r="AS70" s="3" t="s">
-        <v>54</v>
+        <v>-5.600000000000005E-2</v>
+      </c>
+      <c r="AS70" s="3">
+        <v>0.95799999999999996</v>
       </c>
       <c r="AT70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU70" s="3">
-        <v>5.4999999999999938E-2</v>
-      </c>
-      <c r="AV70" s="3" t="s">
-        <v>172</v>
+        <v>3.6999999999999922E-2</v>
+      </c>
+      <c r="AV70" s="3">
+        <v>0.99299999999999999</v>
       </c>
       <c r="AW70" s="2">
         <v>0</v>
       </c>
       <c r="AX70" s="3">
-        <v>-9.3999999999999972E-2</v>
-      </c>
-      <c r="AY70" s="3" t="s">
-        <v>365</v>
+        <v>-2.5999999999999912E-2</v>
+      </c>
+      <c r="AY70" s="3">
+        <v>1.0549999999999999</v>
       </c>
       <c r="AZ70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA70" s="3">
-        <v>-0.13800000000000001</v>
-      </c>
-      <c r="BB70" s="3" t="s">
-        <v>113</v>
+        <v>5.4000000000000048E-2</v>
+      </c>
+      <c r="BB70" s="3">
+        <v>0.99099999999999999</v>
       </c>
       <c r="BC70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD70" s="3">
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="BE70" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="BF70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG70" s="3">
+        <v>1.6999999999999904E-2</v>
+      </c>
+      <c r="BH70" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="BI70" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ70" s="3">
         <v>-1.2999999999999901E-2</v>
       </c>
-      <c r="BE70" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="BF70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG70" s="3">
-        <v>-8.4000000000000075E-2</v>
-      </c>
-      <c r="BH70" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="BI70" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ70" s="3">
-        <v>-4.6000000000000041E-2</v>
-      </c>
-      <c r="BK70" s="3" t="s">
-        <v>366</v>
+      <c r="BK70" s="3">
+        <v>1.069</v>
       </c>
       <c r="BL70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM70" s="3">
-        <v>-0.34700000000000009</v>
-      </c>
-      <c r="BN70" s="3" t="s">
-        <v>367</v>
+        <v>-7.4999999999999956E-2</v>
+      </c>
+      <c r="BN70" s="3">
+        <v>0.97299999999999998</v>
       </c>
       <c r="BO70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP70" s="3">
-        <v>-0.17999999999999994</v>
-      </c>
-      <c r="BQ70" s="3" t="s">
-        <v>210</v>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="BQ70" s="3">
+        <v>1.0389999999999999</v>
       </c>
       <c r="BR70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS70" s="3">
-        <v>-0.18699999999999994</v>
-      </c>
-      <c r="BT70" s="3" t="s">
-        <v>368</v>
+        <v>2.0999999999999908E-2</v>
+      </c>
+      <c r="BT70" s="3">
+        <v>1.016</v>
       </c>
       <c r="BU70" s="2">
         <v>0</v>
       </c>
       <c r="BV70" s="3">
-        <v>-0.19600000000000006</v>
-      </c>
-      <c r="BW70" s="3" t="s">
-        <v>363</v>
+        <v>-1.0999999999999899E-2</v>
+      </c>
+      <c r="BW70" s="3">
+        <v>1.069</v>
       </c>
       <c r="BX70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY70" s="3">
-        <v>0.33999999999999997</v>
-      </c>
-      <c r="BZ70" s="3" t="s">
-        <v>369</v>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="BZ70" s="3">
+        <v>0.996</v>
       </c>
       <c r="CA70" s="2">
         <v>0</v>
       </c>
       <c r="CB70" s="3">
-        <v>-0.33100000000000007</v>
-      </c>
-      <c r="CC70" s="3" t="s">
-        <v>370</v>
+        <v>-0.14100000000000001</v>
+      </c>
+      <c r="CC70" s="3">
+        <v>0.97599999999999998</v>
       </c>
       <c r="CD70" s="2">
         <v>0</v>
       </c>
       <c r="CE70" s="3">
-        <v>0.14300000000000013</v>
-      </c>
-      <c r="CF70" s="3" t="s">
-        <v>371</v>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="CF70" s="3">
+        <v>1.032</v>
       </c>
       <c r="CG70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH70" s="3">
-        <v>-0.17499999999999993</v>
-      </c>
-      <c r="CI70" s="3" t="s">
-        <v>372</v>
+        <v>3.9000000000000035E-2</v>
+      </c>
+      <c r="CI70" s="3">
+        <v>1.0389999999999999</v>
       </c>
       <c r="CJ70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK70" s="3">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="CL70" s="3" t="s">
-        <v>321</v>
+        <v>4.7999999999999932E-2</v>
+      </c>
+      <c r="CL70" s="3">
+        <v>1.01</v>
       </c>
       <c r="CM70" s="2">
         <v>0</v>
       </c>
       <c r="CN70" s="3">
-        <v>-0.17600000000000005</v>
-      </c>
-      <c r="CO70" s="3" t="s">
-        <v>228</v>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="CO70" s="3">
+        <v>1.0189999999999999</v>
       </c>
       <c r="CP70" s="2">
         <v>0</v>
       </c>
       <c r="CQ70" s="3">
-        <v>0.2410000000000001</v>
-      </c>
-      <c r="CR70" s="3" t="s">
-        <v>373</v>
+        <v>4.599999999999993E-2</v>
+      </c>
+      <c r="CR70" s="3">
+        <v>1.0289999999999999</v>
       </c>
       <c r="CS70" s="2">
         <v>0</v>
       </c>
       <c r="CT70" s="3">
-        <v>-0.19099999999999995</v>
-      </c>
-      <c r="CU70" s="3" t="s">
-        <v>194</v>
+        <v>0</v>
+      </c>
+      <c r="CU70" s="3">
+        <v>1.105</v>
       </c>
       <c r="CV70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW70" s="3">
-        <v>-4.2999999999999927E-2</v>
-      </c>
-      <c r="CX70" s="3" t="s">
-        <v>247</v>
+        <v>9.2999999999999972E-2</v>
+      </c>
+      <c r="CX70" s="3">
+        <v>0.97599999999999998</v>
       </c>
       <c r="CY70" s="2">
         <v>0</v>
       </c>
       <c r="CZ70" s="3">
-        <v>-0.27100000000000002</v>
-      </c>
-      <c r="DA70" s="3" t="s">
-        <v>161</v>
+        <v>-0.15100000000000002</v>
+      </c>
+      <c r="DA70" s="3">
+        <v>1.034</v>
       </c>
       <c r="DB70" s="2">
         <v>0</v>
       </c>
       <c r="DC70" s="3">
-        <v>-3.7999999999999923E-2</v>
-      </c>
-      <c r="DD70" s="3" t="s">
-        <v>175</v>
+        <v>6.4000000000000057E-2</v>
+      </c>
+      <c r="DD70" s="3">
+        <v>0.96599999999999997</v>
       </c>
       <c r="DE70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF70" s="3">
-        <v>-0.10000000000000009</v>
-      </c>
-      <c r="DG70" s="3" t="s">
-        <v>137</v>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+      <c r="DG70" s="3">
+        <v>1.048</v>
       </c>
       <c r="DH70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI70" s="3">
-        <v>-2.4000000000000021E-2</v>
-      </c>
-      <c r="DJ70" s="3" t="s">
-        <v>327</v>
+        <v>6.4000000000000057E-2</v>
+      </c>
+      <c r="DJ70" s="3">
+        <v>0.99399999999999999</v>
       </c>
       <c r="DK70" s="2">
         <v>0</v>
       </c>
       <c r="DL70" s="3">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="DM70" s="3" t="s">
-        <v>374</v>
+        <v>-4.8000000000000043E-2</v>
+      </c>
+      <c r="DM70" s="3">
+        <v>1.1459999999999999</v>
       </c>
       <c r="DN70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO70" s="3">
-        <v>-3.6000000000000032E-2</v>
-      </c>
-      <c r="DP70" s="3" t="s">
-        <v>239</v>
+        <v>0.22499999999999987</v>
+      </c>
+      <c r="DP70" s="3">
+        <v>0.93400000000000005</v>
       </c>
       <c r="DQ70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR70" s="3">
-        <v>-0.1140000000000001</v>
+        <v>-0.24599999999999989</v>
       </c>
       <c r="DS70" s="3"/>
       <c r="DU70" s="3"/>
@@ -30686,7 +30642,7 @@
         <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D71" s="2">
         <v>1</v>
@@ -30695,7 +30651,7 @@
         <v>-1.4999999999999902E-2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="G71" s="2">
         <v>1</v>
@@ -30713,7 +30669,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="M71" s="2">
         <v>1</v>
@@ -30722,7 +30678,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P71" s="2">
         <v>0</v>
@@ -30731,7 +30687,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
       <c r="R71" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="S71" s="2">
         <v>0</v>
@@ -30740,7 +30696,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="U71" s="3" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="V71" s="2">
         <v>1</v>
@@ -30749,7 +30705,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="X71" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Y71" s="2">
         <v>0</v>
@@ -30758,7 +30714,7 @@
         <v>2.8000000000000025E-2</v>
       </c>
       <c r="AA71" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AB71" s="2">
         <v>0</v>
@@ -30767,7 +30723,7 @@
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="AD71" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="AE71" s="2">
         <v>1</v>
@@ -30776,7 +30732,7 @@
         <v>-1.3000000000000012E-2</v>
       </c>
       <c r="AG71" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="AH71" s="2">
         <v>1</v>
@@ -30803,7 +30759,7 @@
         <v>-9.2999999999999972E-2</v>
       </c>
       <c r="AP71" s="3" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="AQ71" s="2">
         <v>1</v>
@@ -30812,7 +30768,7 @@
         <v>7.6000000000000068E-2</v>
       </c>
       <c r="AS71" s="3" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="AT71" s="2">
         <v>1</v>
@@ -30821,7 +30777,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="AV71" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AW71" s="2">
         <v>0</v>
@@ -30830,7 +30786,7 @@
         <v>-2.0000000000000018E-3</v>
       </c>
       <c r="AY71" s="3" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="AZ71" s="2">
         <v>1</v>
@@ -30839,7 +30795,7 @@
         <v>-7.1999999999999953E-2</v>
       </c>
       <c r="BB71" s="3" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="BC71" s="2">
         <v>1</v>
@@ -30848,7 +30804,7 @@
         <v>5.9000000000000163E-2</v>
       </c>
       <c r="BE71" s="3" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="BF71" s="2">
         <v>1</v>
@@ -30857,7 +30813,7 @@
         <v>-3.400000000000003E-2</v>
       </c>
       <c r="BH71" s="3" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="BI71" s="2">
         <v>1</v>
@@ -30866,7 +30822,7 @@
         <v>2.8000000000000025E-2</v>
       </c>
       <c r="BK71" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="BL71" s="2">
         <v>1</v>
@@ -30884,7 +30840,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="BQ71" s="3" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="BR71" s="2">
         <v>1</v>
@@ -30893,7 +30849,7 @@
         <v>1.5000000000000124E-2</v>
       </c>
       <c r="BT71" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="BU71" s="2">
         <v>1</v>
@@ -30902,7 +30858,7 @@
         <v>0</v>
       </c>
       <c r="BW71" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BX71" s="2">
         <v>0</v>
@@ -30911,7 +30867,7 @@
         <v>9.000000000000008E-3</v>
       </c>
       <c r="BZ71" s="3" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="CA71" s="2">
         <v>1</v>
@@ -30938,7 +30894,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="CI71" s="3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="CJ71" s="2">
         <v>1</v>
@@ -30947,7 +30903,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="CL71" s="3" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="CM71" s="2">
         <v>1</v>
@@ -30965,7 +30921,7 @@
         <v>1.6000000000000014E-2</v>
       </c>
       <c r="CR71" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="CS71" s="2">
         <v>1</v>
@@ -30974,7 +30930,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CU71" s="3" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="CV71" s="2">
         <v>1</v>
@@ -30983,7 +30939,7 @@
         <v>5.9000000000000163E-2</v>
       </c>
       <c r="CX71" s="3" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="CY71" s="2">
         <v>1</v>
@@ -30992,7 +30948,7 @@
         <v>-5.8999999999999941E-2</v>
       </c>
       <c r="DA71" s="3" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="DB71" s="2">
         <v>1</v>
@@ -31001,7 +30957,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DD71" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="DE71" s="2">
         <v>0</v>
@@ -31010,7 +30966,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="DG71" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="DH71" s="2">
         <v>0</v>
@@ -31019,7 +30975,7 @@
         <v>3.7000000000000033E-2</v>
       </c>
       <c r="DJ71" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="DK71" s="2">
         <v>0</v>
@@ -31028,7 +30984,7 @@
         <v>-3.2000000000000028E-2</v>
       </c>
       <c r="DM71" s="3" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="DN71" s="2">
         <v>1</v>
@@ -31037,7 +30993,7 @@
         <v>1.2000000000000011E-2</v>
       </c>
       <c r="DP71" s="3" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="DQ71" s="2">
         <v>1</v>
@@ -31070,7 +31026,7 @@
         <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D72" s="2">
         <v>1</v>
@@ -31178,7 +31134,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="AM72" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AN72" s="2">
         <v>0</v>
@@ -31295,7 +31251,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="BZ72" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="CA72" s="2">
         <v>1</v>
@@ -31403,7 +31359,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DJ72" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DK72" s="2">
         <v>1</v>
@@ -31421,7 +31377,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DP72" s="3" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="DQ72" s="2">
         <v>1</v>
@@ -31446,444 +31402,444 @@
       <c r="EN72" s="3"/>
       <c r="EP72" s="3"/>
     </row>
-    <row r="73" spans="1:146" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+    <row r="73" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
         <v>84</v>
       </c>
-      <c r="B73" s="1">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="11">
+        <v>1</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0</v>
-      </c>
-      <c r="F73" s="3" t="s">
+      <c r="D73" s="10">
+        <v>1</v>
+      </c>
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="2">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>0</v>
-      </c>
-      <c r="I73" s="3" t="s">
+      <c r="G73" s="10">
+        <v>1</v>
+      </c>
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="3" t="s">
+      <c r="J73" s="10">
+        <v>0</v>
+      </c>
+      <c r="K73" s="12">
+        <v>0</v>
+      </c>
+      <c r="L73" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0</v>
-      </c>
-      <c r="O73" s="3" t="s">
+      <c r="M73" s="10">
+        <v>1</v>
+      </c>
+      <c r="N73" s="12">
+        <v>0</v>
+      </c>
+      <c r="O73" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P73" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>0</v>
-      </c>
-      <c r="R73" s="3" t="s">
+      <c r="P73" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>0</v>
+      </c>
+      <c r="R73" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="2">
-        <v>0</v>
-      </c>
-      <c r="T73" s="3">
-        <v>0</v>
-      </c>
-      <c r="U73" s="3" t="s">
+      <c r="S73" s="10">
+        <v>0</v>
+      </c>
+      <c r="T73" s="12">
+        <v>0</v>
+      </c>
+      <c r="U73" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="V73" s="2">
-        <v>1</v>
-      </c>
-      <c r="W73" s="3">
-        <v>0</v>
-      </c>
-      <c r="X73" s="3" t="s">
+      <c r="V73" s="10">
+        <v>1</v>
+      </c>
+      <c r="W73" s="12">
+        <v>0</v>
+      </c>
+      <c r="X73" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Y73" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="3" t="s">
+      <c r="Y73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="3" t="s">
+      <c r="AB73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AE73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="3" t="s">
+      <c r="AE73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="AH73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="3" t="s">
+      <c r="AH73" s="10">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="AK73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM73" s="3" t="s">
+      <c r="AK73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AN73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP73" s="3" t="s">
+      <c r="AN73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="AQ73" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="3" t="s">
+      <c r="AQ73" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AT73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV73" s="3" t="s">
+      <c r="AT73" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="AW73" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX73" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY73" s="3" t="s">
+      <c r="AW73" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AZ73" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA73" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB73" s="3" t="s">
+      <c r="AZ73" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BC73" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD73" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE73" s="3" t="s">
+      <c r="BC73" s="10">
+        <v>0</v>
+      </c>
+      <c r="BD73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE73" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BF73" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG73" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH73" s="3" t="s">
+      <c r="BF73" s="10">
+        <v>1</v>
+      </c>
+      <c r="BG73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH73" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BI73" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ73" s="3">
-        <v>0</v>
-      </c>
-      <c r="BK73" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL73" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM73" s="3">
-        <v>-3.8999999999999924E-2</v>
-      </c>
-      <c r="BN73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="BO73" s="2">
-        <v>1</v>
-      </c>
-      <c r="BP73" s="3">
-        <v>0.15099999999999991</v>
-      </c>
-      <c r="BQ73" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="BR73" s="2">
-        <v>0</v>
-      </c>
-      <c r="BS73" s="3">
-        <v>-2.5000000000000022E-2</v>
-      </c>
-      <c r="BT73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="BU73" s="2">
-        <v>0</v>
-      </c>
-      <c r="BV73" s="3">
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="BW73" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="BX73" s="2">
-        <v>1</v>
-      </c>
-      <c r="BY73" s="3">
-        <v>-6.1999999999999944E-2</v>
-      </c>
-      <c r="BZ73" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="CA73" s="2">
-        <v>1</v>
-      </c>
-      <c r="CB73" s="3">
-        <v>-3.6999999999999922E-2</v>
-      </c>
-      <c r="CC73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="CD73" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE73" s="3">
-        <v>-2.7000000000000024E-2</v>
-      </c>
-      <c r="CF73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="CG73" s="2">
-        <v>1</v>
-      </c>
-      <c r="CH73" s="3">
-        <v>0.14399999999999991</v>
-      </c>
-      <c r="CI73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="CJ73" s="2">
-        <v>0</v>
-      </c>
-      <c r="CK73" s="3">
-        <v>-8.0000000000000071E-3</v>
-      </c>
-      <c r="CL73" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="CM73" s="2">
-        <v>0</v>
-      </c>
-      <c r="CN73" s="3">
-        <v>-2.4999999999999911E-2</v>
-      </c>
-      <c r="CO73" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="CP73" s="2">
-        <v>0</v>
-      </c>
-      <c r="CQ73" s="3">
-        <v>1.7000000000000015E-2</v>
-      </c>
-      <c r="CR73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="CS73" s="2">
-        <v>0</v>
-      </c>
-      <c r="CT73" s="3">
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="CU73" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="CV73" s="2">
-        <v>1</v>
-      </c>
-      <c r="CW73" s="3">
-        <v>-7.8999999999999848E-2</v>
-      </c>
-      <c r="CX73" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="CY73" s="2">
-        <v>1</v>
-      </c>
-      <c r="CZ73" s="3">
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="DA73" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB73" s="2">
-        <v>0</v>
-      </c>
-      <c r="DC73" s="3">
-        <v>3.8999999999999924E-2</v>
-      </c>
-      <c r="DD73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DE73" s="2">
-        <v>1</v>
-      </c>
-      <c r="DF73" s="3">
-        <v>9.199999999999986E-2</v>
-      </c>
-      <c r="DG73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="DH73" s="2">
-        <v>1</v>
-      </c>
-      <c r="DI73" s="3">
-        <v>-1.0000000000000009E-2</v>
-      </c>
-      <c r="DJ73" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="DK73" s="2">
-        <v>0</v>
-      </c>
-      <c r="DL73" s="3">
-        <v>-6.0000000000000053E-3</v>
-      </c>
-      <c r="DM73" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN73" s="2">
-        <v>0</v>
-      </c>
-      <c r="DO73" s="3">
-        <v>6.1999999999999944E-2</v>
-      </c>
-      <c r="DP73" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="DQ73" s="2">
-        <v>0</v>
-      </c>
-      <c r="DR73" s="3">
-        <v>-0.1379999999999999</v>
-      </c>
-      <c r="DS73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="DT73" s="2">
-        <v>0</v>
-      </c>
-      <c r="DU73" s="3">
-        <v>-0.12800000000000011</v>
-      </c>
-      <c r="DV73" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="DW73" s="2">
-        <v>1</v>
-      </c>
-      <c r="DX73" s="3">
-        <v>-5.4999999999999938E-2</v>
-      </c>
-      <c r="DY73" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="DZ73" s="2">
-        <v>1</v>
-      </c>
-      <c r="EA73" s="3">
-        <v>0.17500000000000004</v>
-      </c>
-      <c r="EB73" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="EC73" s="2">
-        <v>1</v>
-      </c>
-      <c r="ED73" s="3">
-        <v>0.13400000000000012</v>
-      </c>
-      <c r="EE73" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="EF73" s="2">
-        <v>1</v>
-      </c>
-      <c r="EG73" s="3">
-        <v>-5.9999999999999942E-2</v>
-      </c>
-      <c r="EH73" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="EI73" s="2">
-        <v>0</v>
-      </c>
-      <c r="EJ73" s="3">
-        <v>8.999999999999897E-3</v>
-      </c>
-      <c r="EK73" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="EL73" s="2">
-        <v>0</v>
-      </c>
-      <c r="EM73" s="3">
-        <v>8.4999999999999964E-2</v>
-      </c>
-      <c r="EN73" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="EO73" s="2">
-        <v>0</v>
-      </c>
-      <c r="EP73" s="3">
-        <v>-6.800000000000006E-2</v>
+      <c r="BI73" s="10">
+        <v>0</v>
+      </c>
+      <c r="BJ73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BK73" s="12">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="BL73" s="10">
+        <v>1</v>
+      </c>
+      <c r="BM73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BN73" s="12">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="BO73" s="10">
+        <v>1</v>
+      </c>
+      <c r="BP73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BQ73" s="12">
+        <v>1.018</v>
+      </c>
+      <c r="BR73" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BT73" s="12">
+        <v>1.028</v>
+      </c>
+      <c r="BU73" s="10">
+        <v>0</v>
+      </c>
+      <c r="BV73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BW73" s="12">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="BX73" s="10">
+        <v>1</v>
+      </c>
+      <c r="BY73" s="12">
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="12">
+        <v>1.1379999999999999</v>
+      </c>
+      <c r="CA73" s="10">
+        <v>1</v>
+      </c>
+      <c r="CB73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CC73" s="12">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="CD73" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CF73" s="12">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="CG73" s="10">
+        <v>1</v>
+      </c>
+      <c r="CH73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CI73" s="12">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="CJ73" s="10">
+        <v>0</v>
+      </c>
+      <c r="CK73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CL73" s="12">
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="CM73" s="10">
+        <v>0</v>
+      </c>
+      <c r="CN73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CO73" s="12">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="CP73" s="10">
+        <v>0</v>
+      </c>
+      <c r="CQ73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CR73" s="12">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="CS73" s="10">
+        <v>0</v>
+      </c>
+      <c r="CT73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CU73" s="12">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="CV73" s="10">
+        <v>1</v>
+      </c>
+      <c r="CW73" s="12">
+        <v>0</v>
+      </c>
+      <c r="CX73" s="12">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="CY73" s="10">
+        <v>1</v>
+      </c>
+      <c r="CZ73" s="12">
+        <v>0</v>
+      </c>
+      <c r="DA73" s="12">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="DB73" s="10">
+        <v>0</v>
+      </c>
+      <c r="DC73" s="12">
+        <v>0</v>
+      </c>
+      <c r="DD73" s="12">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="DE73" s="10">
+        <v>1</v>
+      </c>
+      <c r="DF73" s="12">
+        <v>-2.7000000000000135E-2</v>
+      </c>
+      <c r="DG73" s="12">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="DH73" s="10">
+        <v>1</v>
+      </c>
+      <c r="DI73" s="12">
+        <v>0</v>
+      </c>
+      <c r="DJ73" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="DK73" s="10">
+        <v>0</v>
+      </c>
+      <c r="DL73" s="12">
+        <v>-3.2000000000000028E-2</v>
+      </c>
+      <c r="DM73" s="12">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="DN73" s="10">
+        <v>0</v>
+      </c>
+      <c r="DO73" s="12">
+        <v>0</v>
+      </c>
+      <c r="DP73" s="12">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="DQ73" s="10">
+        <v>0</v>
+      </c>
+      <c r="DR73" s="12">
+        <v>-0.19799999999999995</v>
+      </c>
+      <c r="DS73" s="12">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="DT73" s="10">
+        <v>0</v>
+      </c>
+      <c r="DU73" s="12">
+        <v>0</v>
+      </c>
+      <c r="DV73" s="12">
+        <v>1.163</v>
+      </c>
+      <c r="DW73" s="10">
+        <v>1</v>
+      </c>
+      <c r="DX73" s="12">
+        <v>0</v>
+      </c>
+      <c r="DY73" s="12">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="DZ73" s="10">
+        <v>1</v>
+      </c>
+      <c r="EA73" s="12">
+        <v>0</v>
+      </c>
+      <c r="EB73" s="12">
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="EC73" s="10">
+        <v>1</v>
+      </c>
+      <c r="ED73" s="12">
+        <v>0</v>
+      </c>
+      <c r="EE73" s="12">
+        <v>0.995</v>
+      </c>
+      <c r="EF73" s="10">
+        <v>1</v>
+      </c>
+      <c r="EG73" s="12">
+        <v>0</v>
+      </c>
+      <c r="EH73" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="EI73" s="10">
+        <v>0</v>
+      </c>
+      <c r="EJ73" s="12">
+        <v>0</v>
+      </c>
+      <c r="EK73" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="EL73" s="10">
+        <v>0</v>
+      </c>
+      <c r="EM73" s="12">
+        <v>0</v>
+      </c>
+      <c r="EN73" s="12">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="EO73" s="10">
+        <v>0</v>
+      </c>
+      <c r="EP73" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:146" x14ac:dyDescent="0.25">
@@ -32334,7 +32290,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
@@ -32370,7 +32326,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P75" s="2">
         <v>1</v>
@@ -32442,7 +32398,7 @@
         <v>0</v>
       </c>
       <c r="AM75" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="AN75" s="2">
         <v>0</v>
@@ -32514,7 +32470,7 @@
         <v>-1.6000000000000014E-2</v>
       </c>
       <c r="BK75" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="BL75" s="2">
         <v>1</v>
@@ -32667,7 +32623,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DJ75" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="DK75" s="2">
         <v>0</v>
@@ -32694,7 +32650,7 @@
         <v>-1.6999999999999904E-2</v>
       </c>
       <c r="DS75" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="DT75" s="2">
         <v>1</v>
@@ -32739,7 +32695,7 @@
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="EH75" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="EI75" s="2">
         <v>0</v>
@@ -33277,7 +33233,7 @@
         <v>2.200000000000002E-2</v>
       </c>
       <c r="X77" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Y77" s="2">
         <v>0</v>
@@ -33322,7 +33278,7 @@
         <v>1.5000000000000013E-2</v>
       </c>
       <c r="AM77" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AN77" s="2">
         <v>0</v>
@@ -33376,7 +33332,7 @@
         <v>4.1000000000000147E-2</v>
       </c>
       <c r="BE77" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BF77" s="2">
         <v>0</v>
@@ -33394,7 +33350,7 @@
         <v>-3.1000000000000028E-2</v>
       </c>
       <c r="BK77" s="3" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="BL77" s="2">
         <v>1</v>
@@ -33439,7 +33395,7 @@
         <v>6.700000000000006E-2</v>
       </c>
       <c r="BZ77" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="CA77" s="2">
         <v>1</v>
@@ -33511,7 +33467,7 @@
         <v>-1.4999999999999902E-2</v>
       </c>
       <c r="CX77" s="3" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="CY77" s="2">
         <v>1</v>
@@ -33529,7 +33485,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
       <c r="DD77" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="DE77" s="2">
         <v>0</v>
@@ -33724,7 +33680,7 @@
         <v>2.0999999999999908E-2</v>
       </c>
       <c r="AS78" s="3" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="AT78" s="2">
         <v>1</v>
@@ -33733,7 +33689,7 @@
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="AV78" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AW78" s="2">
         <v>1</v>
@@ -33778,7 +33734,7 @@
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="BK78" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="BL78" s="2">
         <v>1</v>
@@ -33823,7 +33779,7 @@
         <v>2.7000000000000024E-2</v>
       </c>
       <c r="BZ78" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="CA78" s="2">
         <v>1</v>
@@ -33886,7 +33842,7 @@
         <v>1.0000000000001119E-3</v>
       </c>
       <c r="CU78" s="3" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="CV78" s="2">
         <v>0</v>
@@ -33982,7 +33938,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D79" s="2">
         <v>1</v>
@@ -34279,7 +34235,7 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="CX79" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="CY79" s="2">
         <v>1</v>
@@ -34342,7 +34298,7 @@
         <v>0</v>
       </c>
       <c r="DS79" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="DT79" s="2">
         <v>1</v>
@@ -34387,7 +34343,7 @@
         <v>-1.0000000000000009E-3</v>
       </c>
       <c r="EH79" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="EI79" s="2">
         <v>0</v>
@@ -34773,7 +34729,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="DP80" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="DQ80" s="2">
         <v>1</v>
@@ -35246,7 +35202,7 @@
         <v>0</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
@@ -35354,7 +35310,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AM82" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AN82" s="2">
         <v>0</v>
@@ -35489,7 +35445,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="CF82" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="CG82" s="2">
         <v>0</v>
@@ -35543,7 +35499,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX82" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="CY82" s="2">
         <v>1</v>
@@ -35561,7 +35517,7 @@
         <v>0</v>
       </c>
       <c r="DD82" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="DE82" s="2">
         <v>1</v>
@@ -35597,7 +35553,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DP82" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="DQ82" s="2">
         <v>1</v>
@@ -35738,7 +35694,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="AM83" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AN83" s="2">
         <v>0</v>
@@ -35810,7 +35766,7 @@
         <v>-1.0000000000001119E-3</v>
       </c>
       <c r="BK83" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BL83" s="2">
         <v>1</v>
@@ -35873,7 +35829,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="CF83" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="CG83" s="2">
         <v>0</v>
@@ -35927,7 +35883,7 @@
         <v>-9.9999999999988987E-4</v>
       </c>
       <c r="CX83" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="CY83" s="2">
         <v>1</v>
@@ -36023,7 +35979,7 @@
         <v>-0.125</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G84" s="2">
         <v>0</v>
@@ -36050,7 +36006,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P84" s="2">
         <v>0</v>
@@ -36059,7 +36015,7 @@
         <v>-0.11499999999999999</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="S84" s="2">
         <v>0</v>
@@ -36068,7 +36024,7 @@
         <v>6.5000000000000058E-2</v>
       </c>
       <c r="U84" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V84" s="2">
         <v>0</v>
@@ -36077,7 +36033,7 @@
         <v>1.100000000000001E-2</v>
       </c>
       <c r="X84" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Y84" s="2">
         <v>0</v>
@@ -36086,7 +36042,7 @@
         <v>7.8000000000000069E-2</v>
       </c>
       <c r="AA84" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AB84" s="2">
         <v>0</v>
@@ -36095,7 +36051,7 @@
         <v>-4.9000000000000044E-2</v>
       </c>
       <c r="AD84" s="3" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="AE84" s="2">
         <v>0</v>
@@ -36113,7 +36069,7 @@
         <v>-7.0000000000000062E-3</v>
       </c>
       <c r="AJ84" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AK84" s="2">
         <v>1</v>
@@ -36158,7 +36114,7 @@
         <v>-4.2000000000000037E-2</v>
       </c>
       <c r="AY84" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AZ84" s="2">
         <v>0</v>
@@ -36176,7 +36132,7 @@
         <v>-3.0999999999999917E-2</v>
       </c>
       <c r="BE84" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="BF84" s="2">
         <v>0</v>
@@ -36194,7 +36150,7 @@
         <v>-4.2000000000000037E-2</v>
       </c>
       <c r="BK84" s="3" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="BL84" s="2">
         <v>0</v>
@@ -36203,7 +36159,7 @@
         <v>-0.31100000000000005</v>
       </c>
       <c r="BN84" s="3" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="BO84" s="2">
         <v>0</v>
@@ -36212,7 +36168,7 @@
         <v>-0.22699999999999998</v>
       </c>
       <c r="BQ84" s="3" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="BR84" s="2">
         <v>0</v>
@@ -36221,7 +36177,7 @@
         <v>-0.24499999999999988</v>
       </c>
       <c r="BT84" s="3" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="BU84" s="2">
         <v>1</v>
@@ -36230,7 +36186,7 @@
         <v>-0.31000000000000005</v>
       </c>
       <c r="BW84" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="BX84" s="2">
         <v>0</v>
@@ -36239,7 +36195,7 @@
         <v>7.900000000000007E-2</v>
       </c>
       <c r="BZ84" s="3" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="CA84" s="2">
         <v>0</v>
@@ -36248,7 +36204,7 @@
         <v>-0.29100000000000004</v>
       </c>
       <c r="CC84" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="CD84" s="2">
         <v>0</v>
@@ -36257,7 +36213,7 @@
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="CF84" s="3" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="CG84" s="2">
         <v>0</v>
@@ -36266,7 +36222,7 @@
         <v>-0.19699999999999995</v>
       </c>
       <c r="CI84" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="CJ84" s="2">
         <v>0</v>
@@ -36275,7 +36231,7 @@
         <v>0.13800000000000012</v>
       </c>
       <c r="CL84" s="3" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="CM84" s="2">
         <v>0</v>
@@ -36293,7 +36249,7 @@
         <v>9.6000000000000085E-2</v>
       </c>
       <c r="CR84" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="CS84" s="2">
         <v>1</v>
@@ -36329,7 +36285,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DD84" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="DE84" s="2">
         <v>0</v>
@@ -36347,7 +36303,7 @@
         <v>-1.3000000000000012E-2</v>
       </c>
       <c r="DJ84" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="DK84" s="2">
         <v>0</v>
@@ -36365,7 +36321,7 @@
         <v>4.1999999999999926E-2</v>
       </c>
       <c r="DP84" s="3" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="DQ84" s="2">
         <v>0</v>
@@ -36398,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -36407,7 +36363,7 @@
         <v>-9.4999999999999973E-2</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G85" s="2">
         <v>0</v>
@@ -36425,7 +36381,7 @@
         <v>-2.4000000000000021E-2</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M85" s="2">
         <v>0</v>
@@ -36443,7 +36399,7 @@
         <v>-8.4999999999999964E-2</v>
       </c>
       <c r="R85" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="S85" s="2">
         <v>0</v>
@@ -36461,7 +36417,7 @@
         <v>4.1000000000000036E-2</v>
       </c>
       <c r="X85" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Y85" s="2">
         <v>0</v>
@@ -36497,7 +36453,7 @@
         <v>1.3000000000000012E-2</v>
       </c>
       <c r="AJ85" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="AK85" s="2">
         <v>1</v>
@@ -36524,7 +36480,7 @@
         <v>-7.4000000000000066E-2</v>
       </c>
       <c r="AS85" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AT85" s="2">
         <v>0</v>
@@ -36551,7 +36507,7 @@
         <v>-3.2000000000000028E-2</v>
       </c>
       <c r="BB85" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="BC85" s="2">
         <v>0</v>
@@ -36569,7 +36525,7 @@
         <v>2.5999999999999912E-2</v>
       </c>
       <c r="BH85" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="BI85" s="2">
         <v>0</v>
@@ -36578,7 +36534,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="BK85" s="3" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="BL85" s="2">
         <v>0</v>
@@ -36587,7 +36543,7 @@
         <v>0.14900000000000002</v>
       </c>
       <c r="BN85" s="3" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="BO85" s="2">
         <v>0</v>
@@ -36596,7 +36552,7 @@
         <v>9.3000000000000083E-2</v>
       </c>
       <c r="BQ85" s="3" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="BR85" s="2">
         <v>0</v>
@@ -36605,7 +36561,7 @@
         <v>0.21500000000000008</v>
       </c>
       <c r="BT85" s="3" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="BU85" s="2">
         <v>0</v>
@@ -36614,7 +36570,7 @@
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="BW85" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="BX85" s="2">
         <v>0</v>
@@ -36623,7 +36579,7 @@
         <v>9.9000000000000088E-2</v>
       </c>
       <c r="BZ85" s="3" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="CA85" s="2">
         <v>0</v>
@@ -36641,7 +36597,7 @@
         <v>5.5000000000000049E-2</v>
       </c>
       <c r="CF85" s="3" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="CG85" s="2">
         <v>0</v>
@@ -36659,7 +36615,7 @@
         <v>0.1180000000000001</v>
       </c>
       <c r="CL85" s="3" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="CM85" s="2">
         <v>0</v>
@@ -36668,7 +36624,7 @@
         <v>0.20399999999999996</v>
       </c>
       <c r="CO85" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="CP85" s="2">
         <v>1</v>
@@ -36677,7 +36633,7 @@
         <v>8.6000000000000076E-2</v>
       </c>
       <c r="CR85" s="3" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="CS85" s="2">
         <v>0</v>
@@ -36695,7 +36651,7 @@
         <v>-3.0999999999999917E-2</v>
       </c>
       <c r="CX85" s="3" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="CY85" s="2">
         <v>0</v>
@@ -36713,7 +36669,7 @@
         <v>1.7000000000000015E-2</v>
       </c>
       <c r="DD85" s="3" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="DE85" s="2">
         <v>0</v>
@@ -36731,7 +36687,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="DJ85" s="3" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="DK85" s="2">
         <v>0</v>
@@ -36740,7 +36696,7 @@
         <v>0.17799999999999994</v>
       </c>
       <c r="DM85" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="DN85" s="2">
         <v>0</v>
@@ -36749,7 +36705,7 @@
         <v>7.1999999999999953E-2</v>
       </c>
       <c r="DP85" s="3" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="DQ85" s="2">
         <v>0</v>
@@ -37258,7 +37214,7 @@
         <v>-6.0000000000000053E-3</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P87" s="2">
         <v>0</v>
@@ -37339,7 +37295,7 @@
         <v>-1.2000000000000011E-2</v>
       </c>
       <c r="AP87" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AQ87" s="2">
         <v>1</v>
@@ -37348,7 +37304,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="AS87" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="AT87" s="2">
         <v>1</v>
@@ -37402,7 +37358,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="BK87" s="3" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="BL87" s="2">
         <v>1</v>
@@ -37447,7 +37403,7 @@
         <v>9.000000000000008E-3</v>
       </c>
       <c r="BZ87" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="CA87" s="2">
         <v>1</v>
@@ -37519,7 +37475,7 @@
         <v>-3.9999999999998925E-3</v>
       </c>
       <c r="CX87" s="3" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="CY87" s="2">
         <v>1</v>
@@ -37573,7 +37529,7 @@
         <v>-5.0000000000000044E-3</v>
       </c>
       <c r="DP87" s="3" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="DQ87" s="2">
         <v>1</v>
@@ -37606,7 +37562,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D88" s="2">
         <v>1</v>
@@ -37714,7 +37670,7 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AM88" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AN88" s="2">
         <v>0</v>
@@ -37831,7 +37787,7 @@
         <v>8.0000000000000071E-3</v>
       </c>
       <c r="BZ88" s="3" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="CA88" s="2">
         <v>1</v>
@@ -37867,7 +37823,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="CL88" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CM88" s="2">
         <v>0</v>
@@ -37939,7 +37895,7 @@
         <v>1.0000000000000009E-3</v>
       </c>
       <c r="DJ88" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="DK88" s="2">
         <v>1</v>
@@ -37957,7 +37913,7 @@
         <v>-9.000000000000008E-3</v>
       </c>
       <c r="DP88" s="3" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="DQ88" s="2">
         <v>1</v>
@@ -38098,7 +38054,7 @@
         <v>1.9000000000000017E-2</v>
       </c>
       <c r="AM89" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="AN89" s="2">
         <v>0</v>
@@ -38170,7 +38126,7 @@
         <v>9.9999999999988987E-4</v>
       </c>
       <c r="BK89" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="BL89" s="2">
         <v>1</v>
@@ -38251,7 +38207,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="CL89" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="CM89" s="2">
         <v>0</v>
@@ -38287,7 +38243,7 @@
         <v>-4.9999999999998934E-3</v>
       </c>
       <c r="CX89" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="CY89" s="2">
         <v>1</v>
@@ -39039,7 +38995,7 @@
         <v>0</v>
       </c>
       <c r="BZ91" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="CA91" s="2">
         <v>1</v>
@@ -39165,7 +39121,7 @@
         <v>0</v>
       </c>
       <c r="DP91" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="DQ91" s="2">
         <v>1</v>

--- a/data/cristageone.cur1.xlsx
+++ b/data/cristageone.cur1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="600">
   <si>
     <t>Team ID</t>
   </si>
@@ -1860,12 +1860,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1880,7 +1886,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1903,6 +1909,12 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,10 +2198,10 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="ED62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73:XFD73"/>
+      <selection pane="bottomRight" activeCell="AP53" sqref="AP53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23633,389 +23645,397 @@
       <c r="EN52" s="3"/>
       <c r="EP52" s="3"/>
     </row>
-    <row r="53" spans="1:146" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+    <row r="53" spans="1:146" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>61</v>
       </c>
-      <c r="B53" s="1">
-        <v>0</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="B53" s="15">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D53" s="14">
+        <v>1</v>
+      </c>
+      <c r="E53" s="16">
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G53" s="2">
-        <v>1</v>
-      </c>
-      <c r="H53" s="3">
+      <c r="G53" s="14">
+        <v>1</v>
+      </c>
+      <c r="H53" s="16">
         <v>8.0000000000000071E-3</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
+      <c r="J53" s="14">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3" t="s">
+      <c r="M53" s="14">
+        <v>1</v>
+      </c>
+      <c r="N53" s="16">
+        <v>0</v>
+      </c>
+      <c r="O53" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P53" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="3">
+      <c r="P53" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="16">
         <v>5.0000000000001155E-3</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="R53" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="S53" s="14">
+        <v>0</v>
+      </c>
+      <c r="T53" s="16">
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0.94</v>
+      </c>
+      <c r="V53" s="14">
+        <v>1</v>
+      </c>
+      <c r="W53" s="16">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="X53" s="16">
+        <v>0.96</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="16">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="AA53" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="16">
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="AD53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="16">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="AG53" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="16">
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="AJ53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="16">
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="AM53" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AN53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="16">
+        <v>-2.9999999999998916E-3</v>
+      </c>
+      <c r="AP53" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="16">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="AS53" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT53" s="14">
+        <v>1</v>
+      </c>
+      <c r="AU53" s="16">
+        <v>5.0000000000000044E-3</v>
+      </c>
+      <c r="AV53" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="16">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="AY53" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ53" s="14">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="16">
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="BB53" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="BC53" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="16">
+        <v>-9.9999999999988987E-4</v>
+      </c>
+      <c r="BE53" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF53" s="14">
+        <v>1</v>
+      </c>
+      <c r="BG53" s="16">
+        <v>5.9999999999998943E-3</v>
+      </c>
+      <c r="BH53" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="BI53" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ53" s="16">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="BK53" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="BL53" s="14">
+        <v>1</v>
+      </c>
+      <c r="BM53" s="16">
+        <v>-1.0000000000001119E-3</v>
+      </c>
+      <c r="BN53" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BO53" s="14">
+        <v>0</v>
+      </c>
+      <c r="BP53" s="16">
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="BQ53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR53" s="14">
+        <v>1</v>
+      </c>
+      <c r="BS53" s="16">
+        <v>5.0000000000001155E-3</v>
+      </c>
+      <c r="BT53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="BU53" s="14">
+        <v>1</v>
+      </c>
+      <c r="BV53" s="16">
+        <v>0</v>
+      </c>
+      <c r="BW53" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="S53" s="2">
-        <v>0</v>
-      </c>
-      <c r="T53" s="3">
+      <c r="BX53" s="14">
+        <v>0</v>
+      </c>
+      <c r="BY53" s="16">
+        <v>9.000000000000008E-3</v>
+      </c>
+      <c r="BZ53" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="CA53" s="14">
+        <v>1</v>
+      </c>
+      <c r="CB53" s="16">
+        <v>-1.0000000000001119E-3</v>
+      </c>
+      <c r="CC53" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="CD53" s="14">
+        <v>0</v>
+      </c>
+      <c r="CE53" s="16">
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="U53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="V53" s="2">
-        <v>1</v>
-      </c>
-      <c r="W53" s="3">
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="X53" s="3" t="s">
+      <c r="CF53" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="CG53" s="14">
+        <v>0</v>
+      </c>
+      <c r="CH53" s="16">
+        <v>3.0000000000000027E-3</v>
+      </c>
+      <c r="CI53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="Y53" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="3">
+      <c r="CJ53" s="14">
+        <v>1</v>
+      </c>
+      <c r="CK53" s="16">
         <v>-2.0000000000000018E-3</v>
       </c>
-      <c r="AA53" s="3" t="s">
+      <c r="CL53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="CM53" s="14">
+        <v>1</v>
+      </c>
+      <c r="CN53" s="16">
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="CO53" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="CP53" s="14">
+        <v>1</v>
+      </c>
+      <c r="CQ53" s="16">
+        <v>-4.0000000000000036E-3</v>
+      </c>
+      <c r="CR53" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="CS53" s="14">
+        <v>1</v>
+      </c>
+      <c r="CT53" s="16">
+        <v>-9.9999999999988987E-4</v>
+      </c>
+      <c r="CU53" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="AB53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="3">
-        <v>1.0000000000000009E-3</v>
-      </c>
-      <c r="AD53" s="3" t="s">
+      <c r="CV53" s="14">
+        <v>0</v>
+      </c>
+      <c r="CW53" s="16">
+        <v>-9.9999999999988987E-4</v>
+      </c>
+      <c r="CX53" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="CY53" s="14">
+        <v>1</v>
+      </c>
+      <c r="CZ53" s="16">
+        <v>9.9999999999988987E-4</v>
+      </c>
+      <c r="DA53" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="AE53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF53" s="3">
+      <c r="DB53" s="14">
+        <v>1</v>
+      </c>
+      <c r="DC53" s="16">
         <v>-3.0000000000000027E-3</v>
       </c>
-      <c r="AG53" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="3">
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="AJ53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL53" s="3">
+      <c r="DD53" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="DE53" s="14">
+        <v>1</v>
+      </c>
+      <c r="DF53" s="16">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="DG53" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="DH53" s="14">
+        <v>0</v>
+      </c>
+      <c r="DI53" s="16">
+        <v>-3.0000000000000027E-3</v>
+      </c>
+      <c r="DJ53" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="DK53" s="14">
+        <v>1</v>
+      </c>
+      <c r="DL53" s="16">
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="DM53" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="DN53" s="14">
+        <v>1</v>
+      </c>
+      <c r="DO53" s="16">
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="AM53" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AN53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="3">
-        <v>-2.9999999999998916E-3</v>
-      </c>
-      <c r="AP53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AQ53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR53" s="3">
-        <v>-4.0000000000000036E-3</v>
-      </c>
-      <c r="AS53" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AT53" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU53" s="3">
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="AV53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AW53" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="3">
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="AY53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="AZ53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BA53" s="3">
-        <v>8.0000000000000071E-3</v>
-      </c>
-      <c r="BB53" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="BC53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD53" s="3">
-        <v>-9.9999999999988987E-4</v>
-      </c>
-      <c r="BE53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="BF53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BG53" s="3">
-        <v>5.9999999999998943E-3</v>
-      </c>
-      <c r="BH53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BJ53" s="3">
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="BK53" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="BL53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BM53" s="3">
-        <v>-1.0000000000001119E-3</v>
-      </c>
-      <c r="BN53" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="BO53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BP53" s="3">
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="BQ53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BR53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BS53" s="3">
-        <v>5.0000000000001155E-3</v>
-      </c>
-      <c r="BT53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU53" s="2">
-        <v>1</v>
-      </c>
-      <c r="BV53" s="3">
-        <v>0</v>
-      </c>
-      <c r="BW53" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="BX53" s="2">
-        <v>0</v>
-      </c>
-      <c r="BY53" s="3">
-        <v>9.000000000000008E-3</v>
-      </c>
-      <c r="BZ53" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="CA53" s="2">
-        <v>1</v>
-      </c>
-      <c r="CB53" s="3">
-        <v>-1.0000000000001119E-3</v>
-      </c>
-      <c r="CC53" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="CD53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CE53" s="3">
-        <v>5.0000000000000044E-3</v>
-      </c>
-      <c r="CF53" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="CG53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CH53" s="3">
-        <v>3.0000000000000027E-3</v>
-      </c>
-      <c r="CI53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="CJ53" s="2">
-        <v>1</v>
-      </c>
-      <c r="CK53" s="3">
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="CL53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="CM53" s="2">
-        <v>1</v>
-      </c>
-      <c r="CN53" s="3">
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="CO53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP53" s="2">
-        <v>1</v>
-      </c>
-      <c r="CQ53" s="3">
-        <v>-4.0000000000000036E-3</v>
-      </c>
-      <c r="CR53" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="CS53" s="2">
-        <v>1</v>
-      </c>
-      <c r="CT53" s="3">
-        <v>-9.9999999999988987E-4</v>
-      </c>
-      <c r="CU53" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="CV53" s="2">
-        <v>0</v>
-      </c>
-      <c r="CW53" s="3">
-        <v>-9.9999999999988987E-4</v>
-      </c>
-      <c r="CX53" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="CY53" s="2">
-        <v>1</v>
-      </c>
-      <c r="CZ53" s="3">
-        <v>9.9999999999988987E-4</v>
-      </c>
-      <c r="DA53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="DB53" s="2">
-        <v>1</v>
-      </c>
-      <c r="DC53" s="3">
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="DD53" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="DE53" s="2">
-        <v>1</v>
-      </c>
-      <c r="DF53" s="3">
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="DG53" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DH53" s="2">
-        <v>0</v>
-      </c>
-      <c r="DI53" s="3">
-        <v>-3.0000000000000027E-3</v>
-      </c>
-      <c r="DJ53" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="DK53" s="2">
-        <v>1</v>
-      </c>
-      <c r="DL53" s="3">
-        <v>-2.0000000000000018E-3</v>
-      </c>
-      <c r="DM53" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="DN53" s="2">
-        <v>1</v>
-      </c>
-      <c r="DO53" s="3">
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="DP53" s="3" t="s">
+      <c r="DP53" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="DQ53" s="2">
-        <v>1</v>
-      </c>
-      <c r="DR53" s="3">
+      <c r="DQ53" s="14">
+        <v>1</v>
+      </c>
+      <c r="DR53" s="16">
         <v>2.9999999999998916E-3</v>
       </c>
-      <c r="DS53" s="3"/>
-      <c r="DU53" s="3"/>
-      <c r="DV53" s="3"/>
-      <c r="DX53" s="3"/>
-      <c r="DY53" s="3"/>
-      <c r="EA53" s="3"/>
-      <c r="EB53" s="3"/>
-      <c r="ED53" s="3"/>
-      <c r="EE53" s="3"/>
-      <c r="EG53" s="3"/>
-      <c r="EH53" s="3"/>
-      <c r="EJ53" s="3"/>
-      <c r="EK53" s="3"/>
-      <c r="EM53" s="3"/>
-      <c r="EN53" s="3"/>
-      <c r="EP53" s="3"/>
+      <c r="DS53" s="16"/>
+      <c r="DT53" s="14"/>
+      <c r="DU53" s="16"/>
+      <c r="DV53" s="16"/>
+      <c r="DW53" s="14"/>
+      <c r="DX53" s="16"/>
+      <c r="DY53" s="16"/>
+      <c r="DZ53" s="14"/>
+      <c r="EA53" s="16"/>
+      <c r="EB53" s="16"/>
+      <c r="EC53" s="14"/>
+      <c r="ED53" s="16"/>
+      <c r="EE53" s="16"/>
+      <c r="EF53" s="14"/>
+      <c r="EG53" s="16"/>
+      <c r="EH53" s="16"/>
+      <c r="EI53" s="14"/>
+      <c r="EJ53" s="16"/>
+      <c r="EK53" s="16"/>
+      <c r="EL53" s="14"/>
+      <c r="EM53" s="16"/>
+      <c r="EN53" s="16"/>
+      <c r="EO53" s="14"/>
+      <c r="EP53" s="16"/>
     </row>
     <row r="54" spans="1:146" x14ac:dyDescent="0.25">
       <c r="A54" s="2">

--- a/data/cristageone.cur1.xlsx
+++ b/data/cristageone.cur1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5496"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2186,160 +2186,160 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="EC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EQ1" sqref="EQ1:ES1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="3"/>
-    <col min="4" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="3"/>
-    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="3"/>
-    <col min="10" max="10" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="3"/>
-    <col min="13" max="13" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="3"/>
-    <col min="16" max="16" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" style="3"/>
-    <col min="19" max="19" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" style="3"/>
-    <col min="22" max="22" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" style="3"/>
-    <col min="25" max="25" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.109375" style="3"/>
-    <col min="28" max="28" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.109375" style="4"/>
-    <col min="31" max="31" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" style="4"/>
-    <col min="34" max="34" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.109375" style="4"/>
-    <col min="37" max="37" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.109375" style="4"/>
-    <col min="40" max="40" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.109375" style="4"/>
-    <col min="43" max="43" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.109375" style="4"/>
-    <col min="46" max="46" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.109375" style="4"/>
-    <col min="52" max="52" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.109375" style="4"/>
-    <col min="58" max="58" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.109375" style="4"/>
-    <col min="64" max="64" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="9.109375" style="4"/>
-    <col min="67" max="67" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="9.109375" style="4"/>
-    <col min="70" max="70" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="9.109375" style="4"/>
-    <col min="73" max="73" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.109375" style="4"/>
-    <col min="76" max="76" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.109375" style="4"/>
-    <col min="79" max="79" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="9.109375" style="4"/>
-    <col min="82" max="82" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="9.109375" style="4"/>
-    <col min="85" max="85" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="9.109375" style="4"/>
-    <col min="88" max="88" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="9.109375" style="4"/>
-    <col min="91" max="91" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.109375" style="4"/>
-    <col min="94" max="94" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="9.109375" style="4"/>
-    <col min="97" max="97" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="9.109375" style="4"/>
-    <col min="100" max="100" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="9.109375" style="4"/>
-    <col min="103" max="103" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="9.109375" style="4"/>
-    <col min="106" max="106" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="9.109375" style="4"/>
-    <col min="109" max="109" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="9.109375" style="4"/>
-    <col min="112" max="112" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="9.109375" style="4"/>
-    <col min="115" max="115" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="9.109375" style="4"/>
-    <col min="118" max="118" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="9.109375" style="4"/>
-    <col min="121" max="121" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="9.109375" style="4"/>
-    <col min="124" max="124" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="9.109375" style="4"/>
-    <col min="127" max="127" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="9.109375" style="4"/>
-    <col min="130" max="130" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="9.109375" style="4"/>
-    <col min="133" max="133" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="9.109375" style="4"/>
-    <col min="136" max="136" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="9.109375" style="4"/>
-    <col min="139" max="139" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="9.109375" style="4"/>
-    <col min="142" max="142" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="9.109375" style="4"/>
-    <col min="145" max="145" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="147" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="2" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="3"/>
+    <col min="4" max="4" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="3"/>
+    <col min="7" max="7" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="3"/>
+    <col min="10" max="10" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="3"/>
+    <col min="13" max="13" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.08984375" style="3"/>
+    <col min="16" max="16" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.08984375" style="3"/>
+    <col min="19" max="19" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.08984375" style="3"/>
+    <col min="22" max="22" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.08984375" style="3"/>
+    <col min="25" max="25" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.08984375" style="3"/>
+    <col min="28" max="28" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.08984375" style="4"/>
+    <col min="31" max="31" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.08984375" style="4"/>
+    <col min="34" max="34" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.08984375" style="4"/>
+    <col min="37" max="37" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.08984375" style="4"/>
+    <col min="40" max="40" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.08984375" style="4"/>
+    <col min="43" max="43" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.08984375" style="4"/>
+    <col min="46" max="46" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.08984375" style="4"/>
+    <col min="52" max="52" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.08984375" style="4"/>
+    <col min="58" max="58" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.08984375" style="4"/>
+    <col min="64" max="64" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="9.08984375" style="4"/>
+    <col min="67" max="67" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="9.08984375" style="4"/>
+    <col min="70" max="70" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="9.08984375" style="4"/>
+    <col min="73" max="73" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="9.08984375" style="4"/>
+    <col min="76" max="76" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.08984375" style="4"/>
+    <col min="79" max="79" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="9.08984375" style="4"/>
+    <col min="82" max="82" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="9.08984375" style="4"/>
+    <col min="85" max="85" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="9.08984375" style="4"/>
+    <col min="88" max="88" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="9.08984375" style="4"/>
+    <col min="91" max="91" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.08984375" style="4"/>
+    <col min="94" max="94" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.08984375" style="4"/>
+    <col min="97" max="97" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="9.08984375" style="4"/>
+    <col min="100" max="100" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="9.08984375" style="4"/>
+    <col min="103" max="103" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="9.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="9.08984375" style="4"/>
+    <col min="106" max="106" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="9.08984375" style="4"/>
+    <col min="109" max="109" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="9.08984375" style="4"/>
+    <col min="112" max="112" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="9.08984375" style="4"/>
+    <col min="115" max="115" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="9.08984375" style="4"/>
+    <col min="118" max="118" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="9.08984375" style="4"/>
+    <col min="121" max="121" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="9.08984375" style="4"/>
+    <col min="124" max="124" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="9.08984375" style="4"/>
+    <col min="127" max="127" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="9.08984375" style="4"/>
+    <col min="130" max="130" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="9.08984375" style="4"/>
+    <col min="133" max="133" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="9.08984375" style="4"/>
+    <col min="136" max="136" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="9.08984375" style="4"/>
+    <col min="139" max="139" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.08984375" style="4"/>
+    <col min="142" max="142" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="9.08984375" style="4"/>
+    <col min="145" max="145" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="9.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="147" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:146" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2779,7 +2779,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3171,7 +3171,7 @@
       <c r="EO2" s="6"/>
       <c r="EP2" s="3"/>
     </row>
-    <row r="3" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4051,9 +4051,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -4443,9 +4443,9 @@
       <c r="EO5" s="6"/>
       <c r="EP5" s="3"/>
     </row>
-    <row r="6" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -4835,9 +4835,9 @@
       <c r="EO6" s="6"/>
       <c r="EP6" s="3"/>
     </row>
-    <row r="7" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -5227,9 +5227,9 @@
       <c r="EO7" s="6"/>
       <c r="EP7" s="3"/>
     </row>
-    <row r="8" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -5598,9 +5598,9 @@
       <c r="EO8" s="6"/>
       <c r="EP8" s="3"/>
     </row>
-    <row r="9" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -5990,9 +5990,9 @@
       <c r="EO9" s="6"/>
       <c r="EP9" s="3"/>
     </row>
-    <row r="10" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -6430,9 +6430,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -6870,9 +6870,9 @@
         <v>-1.8000000000000016E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -7262,9 +7262,9 @@
       <c r="EO12" s="6"/>
       <c r="EP12" s="3"/>
     </row>
-    <row r="13" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -7654,9 +7654,9 @@
       <c r="EO13" s="6"/>
       <c r="EP13" s="3"/>
     </row>
-    <row r="14" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -8046,9 +8046,9 @@
       <c r="EO14" s="6"/>
       <c r="EP14" s="3"/>
     </row>
-    <row r="15" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -8438,9 +8438,9 @@
       <c r="EO15" s="6"/>
       <c r="EP15" s="3"/>
     </row>
-    <row r="16" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
@@ -8878,9 +8878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -9318,9 +9318,9 @@
         <v>-1.0000000000001119E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
@@ -9758,9 +9758,9 @@
         <v>2.9999999999998916E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -10150,9 +10150,9 @@
       <c r="EO19" s="6"/>
       <c r="EP19" s="3"/>
     </row>
-    <row r="20" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -10590,9 +10590,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -10982,9 +10982,9 @@
       <c r="EO21" s="6"/>
       <c r="EP21" s="3"/>
     </row>
-    <row r="22" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -11422,9 +11422,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -11814,9 +11814,9 @@
       <c r="EO23" s="6"/>
       <c r="EP23" s="3"/>
     </row>
-    <row r="24" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -12206,9 +12206,9 @@
       <c r="EO24" s="6"/>
       <c r="EP24" s="3"/>
     </row>
-    <row r="25" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -12598,9 +12598,9 @@
       <c r="EO25" s="6"/>
       <c r="EP25" s="3"/>
     </row>
-    <row r="26" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
@@ -13038,9 +13038,9 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="27" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -13430,9 +13430,9 @@
       <c r="EO27" s="6"/>
       <c r="EP27" s="3"/>
     </row>
-    <row r="28" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -13822,9 +13822,9 @@
       <c r="EO28" s="6"/>
       <c r="EP28" s="3"/>
     </row>
-    <row r="29" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -14214,9 +14214,9 @@
       <c r="EO29" s="6"/>
       <c r="EP29" s="3"/>
     </row>
-    <row r="30" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -14654,9 +14654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -15046,9 +15046,9 @@
       <c r="EO31" s="6"/>
       <c r="EP31" s="3"/>
     </row>
-    <row r="32" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -15486,9 +15486,9 @@
         <v>2.9999999999998916E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -15878,9 +15878,9 @@
       <c r="EO33" s="6"/>
       <c r="EP33" s="3"/>
     </row>
-    <row r="34" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -16270,9 +16270,9 @@
       <c r="EO34" s="6"/>
       <c r="EP34" s="3"/>
     </row>
-    <row r="35" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>1</v>
@@ -16710,9 +16710,9 @@
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -17102,9 +17102,9 @@
       <c r="EO36" s="6"/>
       <c r="EP36" s="3"/>
     </row>
-    <row r="37" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -17542,9 +17542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
@@ -17982,9 +17982,9 @@
         <v>1.2000000000000011E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -18422,9 +18422,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -18862,9 +18862,9 @@
         <v>-1.7000000000000126E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -19302,9 +19302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -19742,9 +19742,9 @@
         <v>0.16599999999999993</v>
       </c>
     </row>
-    <row r="43" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
@@ -20182,9 +20182,9 @@
         <v>2.0000000000000018E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -20566,9 +20566,9 @@
       <c r="EN44" s="3"/>
       <c r="EP44" s="3"/>
     </row>
-    <row r="45" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>1</v>
@@ -21006,9 +21006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -21446,9 +21446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -21830,9 +21830,9 @@
       <c r="EN47" s="3"/>
       <c r="EP47" s="3"/>
     </row>
-    <row r="48" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -22270,9 +22270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -22710,9 +22710,9 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -23094,9 +23094,9 @@
       <c r="EN50" s="3"/>
       <c r="EP50" s="3"/>
     </row>
-    <row r="51" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -23478,9 +23478,9 @@
       <c r="EN51" s="3"/>
       <c r="EP51" s="3"/>
     </row>
-    <row r="52" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -23633,9 +23633,9 @@
       <c r="EN52" s="3"/>
       <c r="EP52" s="3"/>
     </row>
-    <row r="53" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B53" s="11">
         <v>0</v>
@@ -24025,9 +24025,9 @@
       <c r="EO53" s="10"/>
       <c r="EP53" s="12"/>
     </row>
-    <row r="54" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -24465,9 +24465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -24849,9 +24849,9 @@
       <c r="EN55" s="3"/>
       <c r="EP55" s="3"/>
     </row>
-    <row r="56" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -25233,9 +25233,9 @@
       <c r="EN56" s="3"/>
       <c r="EP56" s="3"/>
     </row>
-    <row r="57" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>1</v>
@@ -25673,9 +25673,9 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -26057,9 +26057,9 @@
       <c r="EN58" s="3"/>
       <c r="EP58" s="3"/>
     </row>
-    <row r="59" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -26441,9 +26441,9 @@
       <c r="EN59" s="3"/>
       <c r="EP59" s="3"/>
     </row>
-    <row r="60" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -26825,9 +26825,9 @@
       <c r="EN60" s="3"/>
       <c r="EP60" s="3"/>
     </row>
-    <row r="61" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -27139,9 +27139,9 @@
       <c r="EN61" s="3"/>
       <c r="EP61" s="3"/>
     </row>
-    <row r="62" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>71</v>
+        <v>710</v>
       </c>
       <c r="B62" s="1">
         <v>1</v>
@@ -27234,9 +27234,9 @@
       <c r="EN62" s="3"/>
       <c r="EP62" s="3"/>
     </row>
-    <row r="63" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
         <v>1</v>
@@ -27674,9 +27674,9 @@
         <v>-6.2000000000000055E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -28114,9 +28114,9 @@
         <v>-3.0000000000001137E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -28498,9 +28498,9 @@
       <c r="EN65" s="3"/>
       <c r="EP65" s="3"/>
     </row>
-    <row r="66" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
         <v>1</v>
@@ -28938,9 +28938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
         <v>1</v>
@@ -29378,9 +29378,9 @@
         <v>-1.0000000000001119E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B68" s="11">
         <v>1</v>
@@ -29818,9 +29818,9 @@
         <v>-1.5000000000000124E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
         <v>1</v>
@@ -30258,9 +30258,9 @@
         <v>-0.16600000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:146" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:146" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -30642,9 +30642,9 @@
       <c r="EN70" s="3"/>
       <c r="EP70" s="3"/>
     </row>
-    <row r="71" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -31026,9 +31026,9 @@
       <c r="EN71" s="3"/>
       <c r="EP71" s="3"/>
     </row>
-    <row r="72" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -31410,9 +31410,9 @@
       <c r="EN72" s="3"/>
       <c r="EP72" s="3"/>
     </row>
-    <row r="73" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B73" s="11">
         <v>1</v>
@@ -31850,9 +31850,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
@@ -32290,9 +32290,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1">
         <v>1</v>
@@ -32730,9 +32730,9 @@
         <v>-2.200000000000002E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
@@ -33170,9 +33170,9 @@
         <v>-1.0000000000001119E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -33554,9 +33554,9 @@
       <c r="EN77" s="3"/>
       <c r="EP77" s="3"/>
     </row>
-    <row r="78" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -33938,9 +33938,9 @@
       <c r="EN78" s="3"/>
       <c r="EP78" s="3"/>
     </row>
-    <row r="79" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -34378,9 +34378,9 @@
         <v>-1.0000000000001119E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -34762,9 +34762,9 @@
       <c r="EN80" s="3"/>
       <c r="EP80" s="3"/>
     </row>
-    <row r="81" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -35202,9 +35202,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -35586,9 +35586,9 @@
       <c r="EN82" s="3"/>
       <c r="EP82" s="3"/>
     </row>
-    <row r="83" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -35970,9 +35970,9 @@
       <c r="EN83" s="3"/>
       <c r="EP83" s="3"/>
     </row>
-    <row r="84" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -36354,9 +36354,9 @@
       <c r="EN84" s="3"/>
       <c r="EP84" s="3"/>
     </row>
-    <row r="85" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -36738,9 +36738,9 @@
       <c r="EN85" s="3"/>
       <c r="EP85" s="3"/>
     </row>
-    <row r="86" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -37178,9 +37178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -37562,9 +37562,9 @@
       <c r="EN87" s="3"/>
       <c r="EP87" s="3"/>
     </row>
-    <row r="88" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -37946,9 +37946,9 @@
       <c r="EN88" s="3"/>
       <c r="EP88" s="3"/>
     </row>
-    <row r="89" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -38330,7 +38330,7 @@
       <c r="EN89" s="3"/>
       <c r="EP89" s="3"/>
     </row>
-    <row r="90" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>200</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:146" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:146" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>300</v>
       </c>
@@ -39155,7 +39155,7 @@
       <c r="EP91" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:EP92">
+  <sortState ref="A2:ER92">
     <sortCondition descending="1" ref="B2:B92"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cristageone.cur1.xlsx
+++ b/data/cristageone.cur1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3789" uniqueCount="598">
   <si>
     <t>Team ID</t>
   </si>
@@ -2186,10 +2186,10 @@
   <dimension ref="A1:EP91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:C1048576"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -31410,443 +31410,443 @@
       <c r="EN72" s="3"/>
       <c r="EP72" s="3"/>
     </row>
-    <row r="73" spans="1:146" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
+    <row r="73" spans="1:146" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
         <v>70</v>
       </c>
-      <c r="B73" s="11">
-        <v>1</v>
-      </c>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="1">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="10">
-        <v>1</v>
-      </c>
-      <c r="E73" s="12">
-        <v>0</v>
-      </c>
-      <c r="F73" s="12" t="s">
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G73" s="10">
-        <v>1</v>
-      </c>
-      <c r="H73" s="12">
-        <v>0</v>
-      </c>
-      <c r="I73" s="12" t="s">
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J73" s="10">
-        <v>0</v>
-      </c>
-      <c r="K73" s="12">
-        <v>0</v>
-      </c>
-      <c r="L73" s="12" t="s">
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M73" s="10">
-        <v>1</v>
-      </c>
-      <c r="N73" s="12">
-        <v>0</v>
-      </c>
-      <c r="O73" s="12" t="s">
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P73" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="12">
-        <v>0</v>
-      </c>
-      <c r="R73" s="12" t="s">
+      <c r="P73" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="S73" s="10">
-        <v>0</v>
-      </c>
-      <c r="T73" s="12">
-        <v>0</v>
-      </c>
-      <c r="U73" s="12" t="s">
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V73" s="10">
-        <v>1</v>
-      </c>
-      <c r="W73" s="12">
-        <v>0</v>
-      </c>
-      <c r="X73" s="12" t="s">
+      <c r="V73" s="2">
+        <v>1</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y73" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="12" t="s">
+      <c r="Y73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AE73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="12" t="s">
+      <c r="AE73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AH73" s="10">
-        <v>1</v>
-      </c>
-      <c r="AI73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ73" s="12" t="s">
+      <c r="AH73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM73" s="12" t="s">
+      <c r="AK73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AN73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP73" s="12" t="s">
+      <c r="AN73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AQ73" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="12" t="s">
+      <c r="AQ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AT73" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV73" s="12" t="s">
+      <c r="AT73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AW73" s="10">
-        <v>1</v>
-      </c>
-      <c r="AX73" s="12">
-        <v>0</v>
-      </c>
-      <c r="AY73" s="12" t="s">
+      <c r="AW73" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AZ73" s="10">
-        <v>0</v>
-      </c>
-      <c r="BA73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BB73" s="12" t="s">
+      <c r="AZ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="BC73" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BE73" s="12" t="s">
+      <c r="BC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="BF73" s="10">
-        <v>1</v>
-      </c>
-      <c r="BG73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BH73" s="12" t="s">
+      <c r="BF73" s="2">
+        <v>1</v>
+      </c>
+      <c r="BG73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH73" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="BI73" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BK73" s="12">
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="BL73" s="10">
-        <v>1</v>
-      </c>
-      <c r="BM73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BN73" s="12">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="BO73" s="10">
-        <v>1</v>
-      </c>
-      <c r="BP73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BQ73" s="12">
-        <v>1.018</v>
-      </c>
-      <c r="BR73" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BT73" s="12">
-        <v>1.028</v>
-      </c>
-      <c r="BU73" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BW73" s="12">
-        <v>0.95599999999999996</v>
-      </c>
-      <c r="BX73" s="10">
-        <v>1</v>
-      </c>
-      <c r="BY73" s="12">
-        <v>0</v>
-      </c>
-      <c r="BZ73" s="12">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="CA73" s="10">
-        <v>1</v>
-      </c>
-      <c r="CB73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CC73" s="12">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="CD73" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CF73" s="12">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="CG73" s="10">
-        <v>1</v>
-      </c>
-      <c r="CH73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CI73" s="12">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="CJ73" s="10">
-        <v>0</v>
-      </c>
-      <c r="CK73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CL73" s="12">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="CM73" s="10">
-        <v>0</v>
-      </c>
-      <c r="CN73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CO73" s="12">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="CP73" s="10">
-        <v>0</v>
-      </c>
-      <c r="CQ73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CR73" s="12">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="CS73" s="10">
-        <v>0</v>
-      </c>
-      <c r="CT73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CU73" s="12">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="CV73" s="10">
-        <v>1</v>
-      </c>
-      <c r="CW73" s="12">
-        <v>0</v>
-      </c>
-      <c r="CX73" s="12">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="CY73" s="10">
-        <v>1</v>
-      </c>
-      <c r="CZ73" s="12">
-        <v>0</v>
-      </c>
-      <c r="DA73" s="12">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="DB73" s="10">
-        <v>0</v>
-      </c>
-      <c r="DC73" s="12">
-        <v>0</v>
-      </c>
-      <c r="DD73" s="12">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="DE73" s="10">
-        <v>1</v>
-      </c>
-      <c r="DF73" s="12">
-        <v>-2.7000000000000135E-2</v>
-      </c>
-      <c r="DG73" s="12">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="DH73" s="10">
-        <v>1</v>
-      </c>
-      <c r="DI73" s="12">
-        <v>0</v>
-      </c>
-      <c r="DJ73" s="12">
-        <v>1.01</v>
-      </c>
-      <c r="DK73" s="10">
-        <v>0</v>
-      </c>
-      <c r="DL73" s="12">
-        <v>-3.2000000000000028E-2</v>
-      </c>
-      <c r="DM73" s="12">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="DN73" s="10">
-        <v>0</v>
-      </c>
-      <c r="DO73" s="12">
-        <v>0</v>
-      </c>
-      <c r="DP73" s="12">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="DQ73" s="10">
-        <v>0</v>
-      </c>
-      <c r="DR73" s="12">
-        <v>-0.19799999999999995</v>
-      </c>
-      <c r="DS73" s="12">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="DT73" s="10">
-        <v>0</v>
-      </c>
-      <c r="DU73" s="12">
-        <v>0</v>
-      </c>
-      <c r="DV73" s="12">
-        <v>1.163</v>
-      </c>
-      <c r="DW73" s="10">
-        <v>1</v>
-      </c>
-      <c r="DX73" s="12">
-        <v>0</v>
-      </c>
-      <c r="DY73" s="12">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="DZ73" s="10">
-        <v>1</v>
-      </c>
-      <c r="EA73" s="12">
-        <v>0</v>
-      </c>
-      <c r="EB73" s="12">
-        <v>1.0289999999999999</v>
-      </c>
-      <c r="EC73" s="10">
-        <v>1</v>
-      </c>
-      <c r="ED73" s="12">
-        <v>0</v>
-      </c>
-      <c r="EE73" s="12">
-        <v>0.995</v>
-      </c>
-      <c r="EF73" s="10">
-        <v>1</v>
-      </c>
-      <c r="EG73" s="12">
-        <v>0</v>
-      </c>
-      <c r="EH73" s="12">
-        <v>1.02</v>
-      </c>
-      <c r="EI73" s="10">
-        <v>0</v>
-      </c>
-      <c r="EJ73" s="12">
-        <v>0</v>
-      </c>
-      <c r="EK73" s="12">
-        <v>0.91</v>
-      </c>
-      <c r="EL73" s="10">
-        <v>0</v>
-      </c>
-      <c r="EM73" s="12">
-        <v>0</v>
-      </c>
-      <c r="EN73" s="12">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="EO73" s="10">
-        <v>0</v>
-      </c>
-      <c r="EP73" s="12">
+      <c r="BI73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BJ73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL73" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN73" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BP73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BR73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="BU73" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BX73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY73" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="CA73" s="2">
+        <v>1</v>
+      </c>
+      <c r="CB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="CG73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="CJ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="CM73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="CP73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="CS73" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU73" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW73" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="CY73" s="2">
+        <v>1</v>
+      </c>
+      <c r="CZ73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB73" s="2">
+        <v>1</v>
+      </c>
+      <c r="DC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD73" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="DE73" s="2">
+        <v>0</v>
+      </c>
+      <c r="DF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH73" s="2">
+        <v>0</v>
+      </c>
+      <c r="DI73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="DK73" s="2">
+        <v>0</v>
+      </c>
+      <c r="DL73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM73" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="DN73" s="2">
+        <v>1</v>
+      </c>
+      <c r="DO73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP73" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DQ73" s="2">
+        <v>1</v>
+      </c>
+      <c r="DR73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DS73" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="DT73" s="2">
+        <v>1</v>
+      </c>
+      <c r="DU73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DV73" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="DW73" s="2">
+        <v>1</v>
+      </c>
+      <c r="DX73" s="3">
+        <v>0</v>
+      </c>
+      <c r="DY73" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="DZ73" s="2">
+        <v>1</v>
+      </c>
+      <c r="EA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="EB73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="ED73" s="3">
+        <v>0</v>
+      </c>
+      <c r="EE73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="EF73" s="2">
+        <v>0</v>
+      </c>
+      <c r="EG73" s="3">
+        <v>0</v>
+      </c>
+      <c r="EH73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="EI73" s="2">
+        <v>0</v>
+      </c>
+      <c r="EJ73" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK73" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="EL73" s="2">
+        <v>1</v>
+      </c>
+      <c r="EM73" s="3">
+        <v>0</v>
+      </c>
+      <c r="EN73" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="EO73" s="2">
+        <v>1</v>
+      </c>
+      <c r="EP73" s="3">
         <v>0</v>
       </c>
     </row>
